--- a/model/Output Files/Year 2.xlsx
+++ b/model/Output Files/Year 2.xlsx
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>2.884000000000047</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1175,51 +1175,6 @@
           <t>Retired Capacity</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>('Diesel Generator', 'Added Capacity')</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>('Diesel Generator', 'Installed Capacity')</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>('Diesel Generator', 'Retired Capacity')</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned PV', 'Added Capacity')</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned PV', 'Installed Capacity')</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned PV', 'Retired Capacity')</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned Batteries', 'Added Capacity')</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned Batteries', 'Installed Capacity')</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned Batteries', 'Retired Capacity')</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1231,37 +1186,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>104</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>10</v>
-      </c>
-      <c r="L2" t="n">
-        <v>162</v>
-      </c>
-      <c r="M2" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1274,37 +1202,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>400</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>104</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>10</v>
-      </c>
-      <c r="L3" t="n">
-        <v>162</v>
-      </c>
-      <c r="M3" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1314,39 +1215,12 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>400</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>104</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>10</v>
-      </c>
-      <c r="L4" t="n">
-        <v>162</v>
-      </c>
-      <c r="M4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1529,46 +1403,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>40.03636363636369</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1612,37 +1486,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>52.6531170288747</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1692,31 +1566,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>8.783124171003006</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -1853,40 +1727,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>27.03636363636369</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>46.8</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>70.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>54.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>46.8</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>18.2</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -1936,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>29.25311702887469</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -1957,10 +1831,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -2016,31 +1890,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>59.8</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>8.783124171003005</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2165,16 +2039,16 @@
         <v>32.5</v>
       </c>
       <c r="C2" t="n">
-        <v>32.5</v>
+        <v>19.5</v>
       </c>
       <c r="D2" t="n">
-        <v>32.5</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2213,25 +2087,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>7.515999999999954</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>97.5</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -2239,23 +2113,23 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19.5</v>
+        <v>32.5</v>
       </c>
       <c r="C3" t="n">
         <v>19.5</v>
       </c>
       <c r="D3" t="n">
+        <v>13</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>19.5</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
@@ -2290,10 +2164,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -2302,13 +2176,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
@@ -2316,10 +2190,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>32.5</v>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>19.5</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2331,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2370,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2385,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2489,73 +2363,73 @@
         <v>188.6909090909091</v>
       </c>
       <c r="C2" t="n">
-        <v>182.1252525252525</v>
+        <v>168.9939393939394</v>
       </c>
       <c r="D2" t="n">
-        <v>168.9939393939394</v>
+        <v>155.8626262626263</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>142.7313131313131</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>129.6</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>142.47</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>169.236</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>189.828</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>212.994</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>259.326</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>321.102</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>390.6</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>467.82</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>529.596</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>583.65</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>629.982</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>640.4080808080809</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>608.8929292929294</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>490.7111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>392.2262626262627</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>313.4383838383839</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>260.9131313131313</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>221.5191919191919</v>
       </c>
     </row>
     <row r="3">
@@ -2563,7 +2437,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>168.9939393939394</v>
+        <v>182.1252525252525</v>
       </c>
       <c r="C3" t="n">
         <v>162.4282828282828</v>
@@ -2572,67 +2446,67 @@
         <v>149.2969696969697</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>149.2969696969697</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>149.2969696969697</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>129.6</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>129.6</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>170.784</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>232.56</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>314.928</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>407.592</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>436.5525858585859</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>436.5525858585859</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>436.5525858585859</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>459.7185858585859</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>485.4585858585859</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>485.4585858585859</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>464.4484848484849</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>333.1353535353535</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>333.1353535353535</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>333.1353535353535</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>254.3474747474747</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>254.3474747474747</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>214.9535353535353</v>
       </c>
     </row>
     <row r="4">
@@ -2640,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>155.8626262626263</v>
+        <v>168.9939393939394</v>
       </c>
       <c r="C4" t="n">
         <v>149.2969696969697</v>
@@ -2649,67 +2523,67 @@
         <v>149.2969696969697</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>149.2969696969697</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>149.2969696969697</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>129.6</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>129.6</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>129.6</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>139.896</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>139.896</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>211.968</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>271.17</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>353.538</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>353.538</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>362.2332929292929</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>362.2332929292929</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>372.5292929292929</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>372.5292929292929</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>241.2161616161616</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>241.2161616161616</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>241.2161616161616</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>241.2161616161616</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>241.2161616161616</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>201.8222222222222</v>
       </c>
     </row>
   </sheetData>

--- a/model/Output Files/Year 2.xlsx
+++ b/model/Output Files/Year 2.xlsx
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2.884000000000047</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -1125,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>76376.03999999996</v>
+        <v>76271.06239999998</v>
       </c>
       <c r="C2" t="n">
         <v>2000</v>
       </c>
       <c r="D2" t="n">
-        <v>9412.3994463655</v>
+        <v>9300.638068405266</v>
       </c>
       <c r="E2" t="n">
         <v>10370</v>
       </c>
       <c r="F2" t="n">
-        <v>44309.42338579211</v>
+        <v>44314.9292521668</v>
       </c>
     </row>
   </sheetData>
@@ -1406,10 +1406,10 @@
         <v>20.8</v>
       </c>
       <c r="H2" t="n">
-        <v>40.03636363636369</v>
+        <v>41.6</v>
       </c>
       <c r="I2" t="n">
-        <v>52</v>
+        <v>50.43636363636368</v>
       </c>
       <c r="J2" t="n">
         <v>62.4</v>
@@ -1495,16 +1495,16 @@
         <v>83.2</v>
       </c>
       <c r="L3" t="n">
-        <v>93.59999999999999</v>
+        <v>18.8531170288747</v>
       </c>
       <c r="M3" t="n">
-        <v>52.6531170288747</v>
+        <v>23.4</v>
       </c>
       <c r="N3" t="n">
         <v>26</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="P3" t="n">
         <v>52</v>
@@ -1513,7 +1513,7 @@
         <v>52</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="S3" t="n">
         <v>20.8</v>
@@ -1566,10 +1566,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.18312417100297</v>
       </c>
       <c r="L4" t="n">
         <v>72.8</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>8.783124171003006</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -1730,10 +1730,10 @@
         <v>13</v>
       </c>
       <c r="H2" t="n">
-        <v>27.03636363636369</v>
+        <v>28.6</v>
       </c>
       <c r="I2" t="n">
-        <v>20.8</v>
+        <v>19.23636363636368</v>
       </c>
       <c r="J2" t="n">
         <v>23.4</v>
@@ -1819,16 +1819,16 @@
         <v>83.2</v>
       </c>
       <c r="L3" t="n">
-        <v>93.59999999999999</v>
+        <v>18.8531170288747</v>
       </c>
       <c r="M3" t="n">
-        <v>29.25311702887469</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="P3" t="n">
         <v>23.4</v>
@@ -1837,7 +1837,7 @@
         <v>26</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1890,10 +1890,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.18312417100297</v>
       </c>
       <c r="L4" t="n">
         <v>72.8</v>
@@ -1908,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>8.783124171003005</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -2087,10 +2087,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>7.515999999999954</v>
+        <v>10.4</v>
       </c>
       <c r="T2" t="n">
-        <v>31.2</v>
+        <v>28.31599999999998</v>
       </c>
       <c r="U2" t="n">
         <v>117</v>
@@ -2378,7 +2378,7 @@
         <v>142.47</v>
       </c>
       <c r="H2" t="n">
-        <v>169.236</v>
+        <v>170.784</v>
       </c>
       <c r="I2" t="n">
         <v>189.828</v>
@@ -2411,7 +2411,7 @@
         <v>648</v>
       </c>
       <c r="S2" t="n">
-        <v>640.4080808080809</v>
+        <v>637.4949494949495</v>
       </c>
       <c r="T2" t="n">
         <v>608.8929292929294</v>
@@ -2467,22 +2467,22 @@
         <v>314.928</v>
       </c>
       <c r="L3" t="n">
-        <v>407.592</v>
+        <v>333.5925858585859</v>
       </c>
       <c r="M3" t="n">
-        <v>436.5525858585859</v>
+        <v>333.5925858585859</v>
       </c>
       <c r="N3" t="n">
-        <v>436.5525858585859</v>
+        <v>333.5925858585859</v>
       </c>
       <c r="O3" t="n">
-        <v>436.5525858585859</v>
+        <v>405.664585858586</v>
       </c>
       <c r="P3" t="n">
-        <v>459.7185858585859</v>
+        <v>428.8305858585859</v>
       </c>
       <c r="Q3" t="n">
-        <v>485.4585858585859</v>
+        <v>454.570585858586</v>
       </c>
       <c r="R3" t="n">
         <v>485.4585858585859</v>
@@ -2538,22 +2538,22 @@
         <v>129.6</v>
       </c>
       <c r="J4" t="n">
-        <v>139.896</v>
+        <v>129.6</v>
       </c>
       <c r="K4" t="n">
-        <v>139.896</v>
+        <v>148.5912929292929</v>
       </c>
       <c r="L4" t="n">
-        <v>211.968</v>
+        <v>220.6632929292929</v>
       </c>
       <c r="M4" t="n">
-        <v>271.17</v>
+        <v>279.8652929292929</v>
       </c>
       <c r="N4" t="n">
-        <v>353.538</v>
+        <v>362.2332929292929</v>
       </c>
       <c r="O4" t="n">
-        <v>353.538</v>
+        <v>362.2332929292929</v>
       </c>
       <c r="P4" t="n">
         <v>362.2332929292929</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>2.884000000000018</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>

--- a/model/Output Files/Year 2.xlsx
+++ b/model/Output Files/Year 2.xlsx
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2.46800000000054</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1125,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>76271.06239999998</v>
+        <v>77386.86400244875</v>
       </c>
       <c r="C2" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="D2" t="n">
-        <v>9300.638068405266</v>
+        <v>7152.650842211348</v>
       </c>
       <c r="E2" t="n">
-        <v>10370</v>
+        <v>8895</v>
       </c>
       <c r="F2" t="n">
-        <v>44314.9292521668</v>
+        <v>48323.36105854833</v>
       </c>
     </row>
   </sheetData>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
@@ -1403,46 +1403,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>41.6</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>50.43636363636368</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>62.4</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>93.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>93.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>31.2</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1486,37 +1486,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>41.6</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.4</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>18.8531170288747</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>31.2</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1569,16 +1569,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>19.18312417100297</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -1727,40 +1727,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13</v>
+        <v>50.7</v>
       </c>
       <c r="H2" t="n">
-        <v>28.6</v>
+        <v>26.5</v>
       </c>
       <c r="I2" t="n">
-        <v>19.23636363636368</v>
+        <v>17.6</v>
       </c>
       <c r="J2" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>46.8</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>62.4</v>
+        <v>30.91616161616173</v>
       </c>
       <c r="M2" t="n">
-        <v>70.2</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>62.4</v>
+        <v>149</v>
       </c>
       <c r="P2" t="n">
-        <v>54.6</v>
+        <v>149</v>
       </c>
       <c r="Q2" t="n">
-        <v>46.8</v>
+        <v>43</v>
       </c>
       <c r="R2" t="n">
-        <v>18.2</v>
+        <v>14.9</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>41.6</v>
+        <v>40</v>
       </c>
       <c r="J3" t="n">
-        <v>62.4</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>83.2</v>
+        <v>80</v>
       </c>
       <c r="L3" t="n">
-        <v>18.8531170288747</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1828,16 +1828,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72.8</v>
+        <v>12.33079277624773</v>
       </c>
       <c r="P3" t="n">
-        <v>23.4</v>
+        <v>115.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>31.2</v>
+        <v>90</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1890,31 +1890,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>19.18312417100297</v>
+        <v>40</v>
       </c>
       <c r="L4" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>59.8</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>45.38312417100184</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="R4" t="n">
-        <v>10.4</v>
+        <v>30</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2036,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>32.5</v>
+        <v>30.03199999999946</v>
       </c>
       <c r="C2" t="n">
         <v>19.5</v>
@@ -2087,10 +2087,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>28.31599999999998</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>117</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>130</v>
@@ -2360,76 +2360,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>188.6909090909091</v>
+        <v>178.2909090909108</v>
       </c>
       <c r="C2" t="n">
-        <v>168.9939393939394</v>
+        <v>158.5939393939418</v>
       </c>
       <c r="D2" t="n">
-        <v>155.8626262626263</v>
+        <v>145.4626262626279</v>
       </c>
       <c r="E2" t="n">
-        <v>142.7313131313131</v>
+        <v>132.3313131313141</v>
       </c>
       <c r="F2" t="n">
-        <v>129.6</v>
+        <v>119.2</v>
       </c>
       <c r="G2" t="n">
-        <v>142.47</v>
+        <v>169.3930000000002</v>
       </c>
       <c r="H2" t="n">
-        <v>170.784</v>
+        <v>195.6280000000002</v>
       </c>
       <c r="I2" t="n">
-        <v>189.828</v>
+        <v>213.0520000000002</v>
       </c>
       <c r="J2" t="n">
-        <v>212.994</v>
+        <v>213.0520000000002</v>
       </c>
       <c r="K2" t="n">
-        <v>259.326</v>
+        <v>213.0520000000002</v>
       </c>
       <c r="L2" t="n">
-        <v>321.102</v>
+        <v>243.6590000000003</v>
       </c>
       <c r="M2" t="n">
-        <v>390.6</v>
+        <v>243.6590000000003</v>
       </c>
       <c r="N2" t="n">
-        <v>467.82</v>
+        <v>243.6590000000003</v>
       </c>
       <c r="O2" t="n">
-        <v>529.596</v>
+        <v>391.1690000000006</v>
       </c>
       <c r="P2" t="n">
-        <v>583.65</v>
+        <v>538.6790000000008</v>
       </c>
       <c r="Q2" t="n">
-        <v>629.982</v>
+        <v>581.2490000000008</v>
       </c>
       <c r="R2" t="n">
-        <v>648</v>
+        <v>596</v>
       </c>
       <c r="S2" t="n">
-        <v>637.4949494949495</v>
+        <v>596</v>
       </c>
       <c r="T2" t="n">
-        <v>608.8929292929294</v>
+        <v>596</v>
       </c>
       <c r="U2" t="n">
-        <v>490.7111111111111</v>
+        <v>477.8181818181833</v>
       </c>
       <c r="V2" t="n">
-        <v>392.2262626262627</v>
+        <v>379.3333333333333</v>
       </c>
       <c r="W2" t="n">
-        <v>313.4383838383839</v>
+        <v>300.5454545454553</v>
       </c>
       <c r="X2" t="n">
-        <v>260.9131313131313</v>
+        <v>248.0202020202035</v>
       </c>
       <c r="Y2" t="n">
-        <v>221.5191919191919</v>
+        <v>208.6262626262637</v>
       </c>
     </row>
     <row r="3">
@@ -2437,76 +2437,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>182.1252525252525</v>
+        <v>171.725252525252</v>
       </c>
       <c r="C3" t="n">
-        <v>162.4282828282828</v>
+        <v>152.028282828283</v>
       </c>
       <c r="D3" t="n">
-        <v>149.2969696969697</v>
+        <v>138.8969696969692</v>
       </c>
       <c r="E3" t="n">
-        <v>149.2969696969697</v>
+        <v>138.8969696969692</v>
       </c>
       <c r="F3" t="n">
-        <v>149.2969696969697</v>
+        <v>138.8969696969692</v>
       </c>
       <c r="G3" t="n">
-        <v>129.6</v>
+        <v>119.2</v>
       </c>
       <c r="H3" t="n">
-        <v>129.6</v>
+        <v>119.2</v>
       </c>
       <c r="I3" t="n">
-        <v>170.784</v>
+        <v>158.8</v>
       </c>
       <c r="J3" t="n">
-        <v>232.56</v>
+        <v>158.8</v>
       </c>
       <c r="K3" t="n">
-        <v>314.928</v>
+        <v>238</v>
       </c>
       <c r="L3" t="n">
-        <v>333.5925858585859</v>
+        <v>238</v>
       </c>
       <c r="M3" t="n">
-        <v>333.5925858585859</v>
+        <v>238</v>
       </c>
       <c r="N3" t="n">
-        <v>333.5925858585859</v>
+        <v>238</v>
       </c>
       <c r="O3" t="n">
-        <v>405.664585858586</v>
+        <v>250.2074848484854</v>
       </c>
       <c r="P3" t="n">
-        <v>428.8305858585859</v>
+        <v>364.9484848484854</v>
       </c>
       <c r="Q3" t="n">
-        <v>454.570585858586</v>
+        <v>364.9484848484854</v>
       </c>
       <c r="R3" t="n">
-        <v>485.4585858585859</v>
+        <v>454.0484848484854</v>
       </c>
       <c r="S3" t="n">
-        <v>464.4484848484849</v>
+        <v>454.0484848484854</v>
       </c>
       <c r="T3" t="n">
-        <v>333.1353535353535</v>
+        <v>322.7353535353541</v>
       </c>
       <c r="U3" t="n">
-        <v>333.1353535353535</v>
+        <v>322.7353535353541</v>
       </c>
       <c r="V3" t="n">
-        <v>333.1353535353535</v>
+        <v>322.7353535353541</v>
       </c>
       <c r="W3" t="n">
-        <v>254.3474747474747</v>
+        <v>243.9474747474746</v>
       </c>
       <c r="X3" t="n">
-        <v>254.3474747474747</v>
+        <v>243.9474747474746</v>
       </c>
       <c r="Y3" t="n">
-        <v>214.9535353535353</v>
+        <v>204.5535353535348</v>
       </c>
     </row>
     <row r="4">
@@ -2514,76 +2514,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>168.9939393939394</v>
+        <v>158.5939393939381</v>
       </c>
       <c r="C4" t="n">
-        <v>149.2969696969697</v>
+        <v>138.8969696969692</v>
       </c>
       <c r="D4" t="n">
-        <v>149.2969696969697</v>
+        <v>138.8969696969692</v>
       </c>
       <c r="E4" t="n">
-        <v>149.2969696969697</v>
+        <v>138.8969696969692</v>
       </c>
       <c r="F4" t="n">
-        <v>149.2969696969697</v>
+        <v>138.8969696969692</v>
       </c>
       <c r="G4" t="n">
-        <v>129.6</v>
+        <v>119.2</v>
       </c>
       <c r="H4" t="n">
-        <v>129.6</v>
+        <v>119.2</v>
       </c>
       <c r="I4" t="n">
-        <v>129.6</v>
+        <v>119.2</v>
       </c>
       <c r="J4" t="n">
-        <v>129.6</v>
+        <v>148.9</v>
       </c>
       <c r="K4" t="n">
-        <v>148.5912929292929</v>
+        <v>188.5</v>
       </c>
       <c r="L4" t="n">
-        <v>220.6632929292929</v>
+        <v>188.5</v>
       </c>
       <c r="M4" t="n">
-        <v>279.8652929292929</v>
+        <v>188.5</v>
       </c>
       <c r="N4" t="n">
-        <v>362.2332929292929</v>
+        <v>188.5</v>
       </c>
       <c r="O4" t="n">
-        <v>362.2332929292929</v>
+        <v>233.429292929292</v>
       </c>
       <c r="P4" t="n">
-        <v>362.2332929292929</v>
+        <v>273.029292929292</v>
       </c>
       <c r="Q4" t="n">
-        <v>362.2332929292929</v>
+        <v>332.429292929292</v>
       </c>
       <c r="R4" t="n">
-        <v>372.5292929292929</v>
+        <v>362.129292929292</v>
       </c>
       <c r="S4" t="n">
-        <v>372.5292929292929</v>
+        <v>362.129292929292</v>
       </c>
       <c r="T4" t="n">
-        <v>241.2161616161616</v>
+        <v>230.8161616161607</v>
       </c>
       <c r="U4" t="n">
-        <v>241.2161616161616</v>
+        <v>230.8161616161607</v>
       </c>
       <c r="V4" t="n">
-        <v>241.2161616161616</v>
+        <v>230.8161616161607</v>
       </c>
       <c r="W4" t="n">
-        <v>241.2161616161616</v>
+        <v>230.8161616161607</v>
       </c>
       <c r="X4" t="n">
-        <v>241.2161616161616</v>
+        <v>230.8161616161607</v>
       </c>
       <c r="Y4" t="n">
-        <v>201.8222222222222</v>
+        <v>191.4222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3050,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>177.6</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -3062,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3347,46 +3347,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>19.7</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>48.8</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>51.71616161616173</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>88.8</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>48.7</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>28.4</v>
       </c>
       <c r="T2" t="n">
-        <v>2.884000000000018</v>
+        <v>18</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3430,37 +3430,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>12.33079277624773</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>48.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>18.4</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3510,10 +3510,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -3528,13 +3528,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3671,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>38.8</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -3695,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -3707,10 +3707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>13.2</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3775,16 +3775,16 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3843,22 +3843,22 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>45.38312417100184</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 2.xlsx
+++ b/model/Output Files/Year 2.xlsx
@@ -20,6 +20,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1295,6 +1296,330 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="G2" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>291.5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>327</v>
+      </c>
+      <c r="J2" t="n">
+        <v>388.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>502</v>
+      </c>
+      <c r="L2" t="n">
+        <v>596</v>
+      </c>
+      <c r="M2" t="n">
+        <v>670.5</v>
+      </c>
+      <c r="N2" t="n">
+        <v>745</v>
+      </c>
+      <c r="O2" t="n">
+        <v>651</v>
+      </c>
+      <c r="P2" t="n">
+        <v>576.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>502</v>
+      </c>
+      <c r="R2" t="n">
+        <v>320.5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>139</v>
+      </c>
+      <c r="T2" t="n">
+        <v>32</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-117</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-97.5</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-78</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-52</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-13</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>324</v>
+      </c>
+      <c r="J3" t="n">
+        <v>486</v>
+      </c>
+      <c r="K3" t="n">
+        <v>648</v>
+      </c>
+      <c r="L3" t="n">
+        <v>729</v>
+      </c>
+      <c r="M3" t="n">
+        <v>751.5</v>
+      </c>
+      <c r="N3" t="n">
+        <v>583</v>
+      </c>
+      <c r="O3" t="n">
+        <v>567</v>
+      </c>
+      <c r="P3" t="n">
+        <v>333.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>340</v>
+      </c>
+      <c r="R3" t="n">
+        <v>243</v>
+      </c>
+      <c r="S3" t="n">
+        <v>57.99999999999999</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-130</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-78</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>81</v>
+      </c>
+      <c r="K4" t="n">
+        <v>324</v>
+      </c>
+      <c r="L4" t="n">
+        <v>567</v>
+      </c>
+      <c r="M4" t="n">
+        <v>589.5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>648</v>
+      </c>
+      <c r="O4" t="n">
+        <v>567</v>
+      </c>
+      <c r="P4" t="n">
+        <v>324</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>162</v>
+      </c>
+      <c r="R4" t="n">
+        <v>81</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-130</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/model/Output Files/Year 2.xlsx
+++ b/model/Output Files/Year 2.xlsx
@@ -525,19 +525,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.46800000000054</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>4.979999999999698</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77386.86400244875</v>
+        <v>77366.02327517605</v>
       </c>
       <c r="C2" t="n">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>7152.650842211348</v>
+        <v>10962.83414538837</v>
       </c>
       <c r="E2" t="n">
-        <v>8895</v>
+        <v>9720</v>
       </c>
       <c r="F2" t="n">
-        <v>48323.36105854833</v>
+        <v>46005.34788555123</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1216,10 +1216,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1811,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>10.38312417100186</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -2052,43 +2052,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>50.7</v>
+        <v>64.3</v>
       </c>
       <c r="H2" t="n">
-        <v>26.5</v>
+        <v>53.7</v>
       </c>
       <c r="I2" t="n">
-        <v>17.6</v>
+        <v>2.8</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>60.3</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="L2" t="n">
-        <v>30.91616161616173</v>
+        <v>33.6</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>37.8</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="O2" t="n">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="P2" t="n">
-        <v>149</v>
+        <v>25.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>43</v>
+        <v>21.6</v>
       </c>
       <c r="R2" t="n">
-        <v>14.9</v>
+        <v>0.2</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>58.82525252525249</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -2135,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>40</v>
+        <v>27.43079277624771</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="K3" t="n">
-        <v>80</v>
+        <v>54.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>44.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>28.4</v>
       </c>
       <c r="O3" t="n">
-        <v>12.33079277624773</v>
+        <v>47.6</v>
       </c>
       <c r="P3" t="n">
-        <v>115.9</v>
+        <v>5.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R3" t="n">
-        <v>90</v>
+        <v>20.4</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>40</v>
+        <v>27.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="O4" t="n">
-        <v>45.38312417100184</v>
+        <v>47.6</v>
       </c>
       <c r="P4" t="n">
-        <v>40</v>
+        <v>27.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>60</v>
+        <v>10.38312417100186</v>
       </c>
       <c r="R4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2361,19 +2361,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>30.03199999999946</v>
+        <v>32.5</v>
       </c>
       <c r="C2" t="n">
         <v>19.5</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>8.02000000000103</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2685,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>178.2909090909108</v>
+        <v>139.7979797979801</v>
       </c>
       <c r="C2" t="n">
-        <v>158.5939393939418</v>
+        <v>120.1010101010111</v>
       </c>
       <c r="D2" t="n">
-        <v>145.4626262626279</v>
+        <v>112</v>
       </c>
       <c r="E2" t="n">
-        <v>132.3313131313141</v>
+        <v>112</v>
       </c>
       <c r="F2" t="n">
-        <v>119.2</v>
+        <v>112</v>
       </c>
       <c r="G2" t="n">
-        <v>169.3930000000002</v>
+        <v>175.657</v>
       </c>
       <c r="H2" t="n">
-        <v>195.6280000000002</v>
+        <v>228.82</v>
       </c>
       <c r="I2" t="n">
-        <v>213.0520000000002</v>
+        <v>231.592</v>
       </c>
       <c r="J2" t="n">
-        <v>213.0520000000002</v>
+        <v>291.289</v>
       </c>
       <c r="K2" t="n">
-        <v>213.0520000000002</v>
+        <v>312.673</v>
       </c>
       <c r="L2" t="n">
-        <v>243.6590000000003</v>
+        <v>345.937</v>
       </c>
       <c r="M2" t="n">
-        <v>243.6590000000003</v>
+        <v>383.359</v>
       </c>
       <c r="N2" t="n">
-        <v>243.6590000000003</v>
+        <v>424.939</v>
       </c>
       <c r="O2" t="n">
-        <v>391.1690000000006</v>
+        <v>454.639</v>
       </c>
       <c r="P2" t="n">
-        <v>538.6790000000008</v>
+        <v>480.181</v>
       </c>
       <c r="Q2" t="n">
-        <v>581.2490000000008</v>
+        <v>501.5650000000001</v>
       </c>
       <c r="R2" t="n">
-        <v>596</v>
+        <v>501.763</v>
       </c>
       <c r="S2" t="n">
-        <v>596</v>
+        <v>560</v>
       </c>
       <c r="T2" t="n">
-        <v>596</v>
+        <v>560</v>
       </c>
       <c r="U2" t="n">
-        <v>477.8181818181833</v>
+        <v>441.8181818181826</v>
       </c>
       <c r="V2" t="n">
-        <v>379.3333333333333</v>
+        <v>343.3333333333333</v>
       </c>
       <c r="W2" t="n">
-        <v>300.5454545454553</v>
+        <v>264.5454545454545</v>
       </c>
       <c r="X2" t="n">
-        <v>248.0202020202035</v>
+        <v>212.0202020202027</v>
       </c>
       <c r="Y2" t="n">
-        <v>208.6262626262637</v>
+        <v>172.6262626262629</v>
       </c>
     </row>
     <row r="3">
@@ -2762,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>171.725252525252</v>
+        <v>164.5252525252518</v>
       </c>
       <c r="C3" t="n">
-        <v>152.028282828283</v>
+        <v>144.8282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>138.8969696969692</v>
+        <v>131.6969696969689</v>
       </c>
       <c r="E3" t="n">
-        <v>138.8969696969692</v>
+        <v>131.6969696969689</v>
       </c>
       <c r="F3" t="n">
-        <v>138.8969696969692</v>
+        <v>131.6969696969689</v>
       </c>
       <c r="G3" t="n">
-        <v>119.2</v>
+        <v>112</v>
       </c>
       <c r="H3" t="n">
-        <v>119.2</v>
+        <v>112</v>
       </c>
       <c r="I3" t="n">
-        <v>158.8</v>
+        <v>139.1564848484852</v>
       </c>
       <c r="J3" t="n">
-        <v>158.8</v>
+        <v>179.5484848484852</v>
       </c>
       <c r="K3" t="n">
-        <v>238</v>
+        <v>233.4044848484852</v>
       </c>
       <c r="L3" t="n">
-        <v>238</v>
+        <v>293.9924848484852</v>
       </c>
       <c r="M3" t="n">
-        <v>238</v>
+        <v>338.1464848484852</v>
       </c>
       <c r="N3" t="n">
-        <v>238</v>
+        <v>366.2624848484852</v>
       </c>
       <c r="O3" t="n">
-        <v>250.2074848484854</v>
+        <v>413.3864848484852</v>
       </c>
       <c r="P3" t="n">
-        <v>364.9484848484854</v>
+        <v>418.7324848484852</v>
       </c>
       <c r="Q3" t="n">
-        <v>364.9484848484854</v>
+        <v>426.6524848484852</v>
       </c>
       <c r="R3" t="n">
-        <v>454.0484848484854</v>
+        <v>446.8484848484852</v>
       </c>
       <c r="S3" t="n">
-        <v>454.0484848484854</v>
+        <v>446.8484848484852</v>
       </c>
       <c r="T3" t="n">
-        <v>322.7353535353541</v>
+        <v>315.5353535353539</v>
       </c>
       <c r="U3" t="n">
-        <v>322.7353535353541</v>
+        <v>315.5353535353539</v>
       </c>
       <c r="V3" t="n">
-        <v>322.7353535353541</v>
+        <v>315.5353535353539</v>
       </c>
       <c r="W3" t="n">
-        <v>243.9474747474746</v>
+        <v>236.7474747474744</v>
       </c>
       <c r="X3" t="n">
-        <v>243.9474747474746</v>
+        <v>236.7474747474744</v>
       </c>
       <c r="Y3" t="n">
-        <v>204.5535353535348</v>
+        <v>197.3535353535346</v>
       </c>
     </row>
     <row r="4">
@@ -2839,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>158.5939393939381</v>
+        <v>151.3939393939379</v>
       </c>
       <c r="C4" t="n">
-        <v>138.8969696969692</v>
+        <v>131.6969696969689</v>
       </c>
       <c r="D4" t="n">
-        <v>138.8969696969692</v>
+        <v>131.6969696969689</v>
       </c>
       <c r="E4" t="n">
-        <v>138.8969696969692</v>
+        <v>131.6969696969689</v>
       </c>
       <c r="F4" t="n">
-        <v>138.8969696969692</v>
+        <v>131.6969696969689</v>
       </c>
       <c r="G4" t="n">
-        <v>119.2</v>
+        <v>112</v>
       </c>
       <c r="H4" t="n">
-        <v>119.2</v>
+        <v>112</v>
       </c>
       <c r="I4" t="n">
-        <v>119.2</v>
+        <v>112</v>
       </c>
       <c r="J4" t="n">
-        <v>148.9</v>
+        <v>112</v>
       </c>
       <c r="K4" t="n">
-        <v>188.5</v>
+        <v>138.928</v>
       </c>
       <c r="L4" t="n">
-        <v>188.5</v>
+        <v>186.052</v>
       </c>
       <c r="M4" t="n">
-        <v>188.5</v>
+        <v>216.742</v>
       </c>
       <c r="N4" t="n">
-        <v>188.5</v>
+        <v>270.598</v>
       </c>
       <c r="O4" t="n">
-        <v>233.429292929292</v>
+        <v>317.722</v>
       </c>
       <c r="P4" t="n">
-        <v>273.029292929292</v>
+        <v>344.65</v>
       </c>
       <c r="Q4" t="n">
-        <v>332.429292929292</v>
+        <v>354.9292929292918</v>
       </c>
       <c r="R4" t="n">
-        <v>362.129292929292</v>
+        <v>354.9292929292918</v>
       </c>
       <c r="S4" t="n">
-        <v>362.129292929292</v>
+        <v>354.9292929292918</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8161616161607</v>
+        <v>223.6161616161605</v>
       </c>
       <c r="U4" t="n">
-        <v>230.8161616161607</v>
+        <v>223.6161616161605</v>
       </c>
       <c r="V4" t="n">
-        <v>230.8161616161607</v>
+        <v>223.6161616161605</v>
       </c>
       <c r="W4" t="n">
-        <v>230.8161616161607</v>
+        <v>223.6161616161605</v>
       </c>
       <c r="X4" t="n">
-        <v>230.8161616161607</v>
+        <v>223.6161616161605</v>
       </c>
       <c r="Y4" t="n">
-        <v>191.4222222222222</v>
+        <v>184.2222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3375,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>177.6</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.2307927762477106</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -3678,34 +3678,34 @@
         <v>39.5</v>
       </c>
       <c r="I2" t="n">
-        <v>48.8</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>39</v>
+        <v>58.5</v>
       </c>
       <c r="K2" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.71616161616173</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>88.8</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>48.7</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>28.4</v>
@@ -3755,34 +3755,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>12.33079277624773</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>48.9</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>18.4</v>
@@ -3835,10 +3835,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -3853,13 +3853,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -4020,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>91.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -4032,10 +4032,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>13.2</v>
+        <v>51.62525252525251</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>20.4</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4100,16 +4100,16 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>95.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>23.2</v>
+        <v>9.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -4168,22 +4168,22 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>45.38312417100184</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 2.xlsx
+++ b/model/Output Files/Year 2.xlsx
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>30.98000000000112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77366.02695740356</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>10962.83460566681</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>9720</v>
+        <v>8150</v>
       </c>
       <c r="F2" t="n">
-        <v>46005.35050055738</v>
+        <v>-6614.722830939046</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1216,10 +1216,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
@@ -1236,7 +1236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1245,50 +1245,30 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>14</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type 1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Type 2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Type 3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Type 4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Type 5</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -1296,249 +1276,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
-      </c>
-      <c r="G2" t="n">
-        <v>15</v>
-      </c>
-      <c r="H2" t="n">
-        <v>15</v>
-      </c>
-      <c r="I2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J2" t="n">
-        <v>15</v>
-      </c>
-      <c r="K2" t="n">
-        <v>15</v>
-      </c>
-      <c r="L2" t="n">
-        <v>15</v>
-      </c>
-      <c r="M2" t="n">
-        <v>15</v>
-      </c>
-      <c r="N2" t="n">
-        <v>15</v>
-      </c>
-      <c r="O2" t="n">
-        <v>15</v>
-      </c>
-      <c r="P2" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>34</v>
-      </c>
-      <c r="C3" t="n">
-        <v>34</v>
-      </c>
-      <c r="D3" t="n">
-        <v>34</v>
-      </c>
-      <c r="E3" t="n">
-        <v>34</v>
-      </c>
-      <c r="F3" t="n">
-        <v>34</v>
-      </c>
-      <c r="G3" t="n">
-        <v>34</v>
-      </c>
-      <c r="H3" t="n">
-        <v>34</v>
-      </c>
-      <c r="I3" t="n">
-        <v>34</v>
-      </c>
-      <c r="J3" t="n">
-        <v>34</v>
-      </c>
-      <c r="K3" t="n">
-        <v>34</v>
-      </c>
-      <c r="L3" t="n">
-        <v>34</v>
-      </c>
-      <c r="M3" t="n">
-        <v>34</v>
-      </c>
-      <c r="N3" t="n">
-        <v>34</v>
-      </c>
-      <c r="O3" t="n">
-        <v>34</v>
-      </c>
-      <c r="P3" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11</v>
-      </c>
-      <c r="E6" t="n">
-        <v>11</v>
-      </c>
-      <c r="F6" t="n">
-        <v>11</v>
-      </c>
-      <c r="G6" t="n">
-        <v>11</v>
-      </c>
-      <c r="H6" t="n">
-        <v>11</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>11</v>
-      </c>
-      <c r="K6" t="n">
-        <v>11</v>
-      </c>
-      <c r="L6" t="n">
-        <v>11</v>
-      </c>
-      <c r="M6" t="n">
-        <v>11</v>
-      </c>
-      <c r="N6" t="n">
-        <v>11</v>
-      </c>
-      <c r="O6" t="n">
-        <v>11</v>
-      </c>
-      <c r="P6" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1639,76 +1389,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-32.5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>142.5</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>291.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>388.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>596</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>670.5</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>745</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>651</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>576.5</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>320.5</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>-117</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>-97.5</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>-78</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>-52</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>-39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1716,13 +1466,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-32.5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -1731,46 +1481,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>486</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>648</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>729</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>751.5</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>583</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>333.5</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>57.99999999999999</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>-130</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1779,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>-78</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>-39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1793,10 +1543,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-32.5</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1808,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1817,37 +1567,37 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>589.5</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>648</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-130</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -1862,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>-39</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1978,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>40.8</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>61.2</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>61.2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>20.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2061,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>40.8</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>61.2</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.4</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -2141,31 +1891,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>30.7831241710018</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2302,46 +2052,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>53.7</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>51.59990000020707</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>115.8</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>21.6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>33.6</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>37.8</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>25.8</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>21.6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>5.825352525042177</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2385,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27.43079277624774</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>40.8</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>61.2</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>44.6</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>28.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.4</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2465,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>30.7831241710018</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2611,19 +2361,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2668,19 +2418,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>97.5</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.019999999999243</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2688,13 +2438,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2703,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2742,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -2751,13 +2501,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2765,10 +2515,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2780,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2819,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2834,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2935,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>171.0909090909105</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>151.3939393939416</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>138.2626262626277</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>125.1313131313139</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>117.742</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>170.905</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>221.988901000205</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>336.630901000205</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>358.014901000205</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>391.278901000205</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>428.700901000205</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>470.280901000205</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>499.980901000205</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>525.522901000205</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>546.906901000205</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>547.104901000205</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>554.2329010002082</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>441.8181818181826</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>343.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>264.5454545454545</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>212.0202020202027</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>203.9191919191934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3012,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>277.6767676767665</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>257.9797979797976</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>244.8484848484837</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>244.8484848484837</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>244.8484848484837</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>225.1515151515147</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>225.1515151515147</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>252.308</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>292.7</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>346.556</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>407.144</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>451.298</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>479.414</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>526.538</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>531.884</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>539.804</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>428.6868686868687</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>428.6868686868687</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>428.6868686868687</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>349.8989898989892</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>349.8989898989892</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>310.5050505050494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3089,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>151.3939393939379</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>131.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>131.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>131.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>131.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>118.732</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>145.66</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>176.1352929292918</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>206.8252929292918</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>260.6812929292918</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>307.8052929292918</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>334.7332929292918</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>348.1972929292918</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>354.9292929292918</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>354.9292929292918</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>223.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>223.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>223.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>223.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>184.2222222222222</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3637,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>26.22535252504218</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3711,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3925,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>39.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>48.8</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -3958,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>28.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4005,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2307933532296756</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -4255,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>

--- a/model/Output Files/Year 2.xlsx
+++ b/model/Output Files/Year 2.xlsx
@@ -531,13 +531,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>4.979999999999698</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>77366.02327517605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>10962.83414538837</v>
       </c>
       <c r="E2" t="n">
-        <v>8150</v>
+        <v>9720</v>
       </c>
       <c r="F2" t="n">
-        <v>-6614.722830939046</v>
+        <v>46005.34788555123</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1216,10 +1216,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
@@ -1276,19 +1276,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1389,76 +1389,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-32.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>142.5</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>291.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>327</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>388.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>596</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>670.5</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>745</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>651</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>576.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>320.5</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>-117</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>-97.5</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>-78</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>-52</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="3">
@@ -1466,13 +1466,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-32.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -1481,46 +1481,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>729</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>751.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>583</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>333.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>-130</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>-78</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="4">
@@ -1543,10 +1543,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-32.5</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1567,37 +1567,37 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>589.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>-130</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>-39</v>
       </c>
     </row>
   </sheetData>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1811,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>10.38312417100186</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -2052,43 +2052,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>64.3</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>53.7</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>60.3</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>33.6</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>37.8</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>25.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>58.82525252525249</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -2135,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>27.43079277624771</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>44.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>28.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2218,25 +2218,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>10.38312417100186</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -2361,13 +2361,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>8.02000000000103</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -2418,19 +2418,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>97.5</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -2438,13 +2438,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2492,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -2501,13 +2501,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
@@ -2515,10 +2515,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2685,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>139.7979797979801</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>120.1010101010111</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>175.657</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>228.82</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>231.592</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>291.289</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>312.673</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>345.937</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>383.359</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>424.939</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>454.639</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>480.181</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>501.5650000000001</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>501.763</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>441.8181818181826</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>343.3333333333333</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>264.5454545454545</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>212.0202020202027</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>172.6262626262629</v>
       </c>
     </row>
     <row r="3">
@@ -2762,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>164.5252525252518</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>144.8282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>131.6969696969689</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>131.6969696969689</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>131.6969696969689</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>139.1564848484852</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>179.5484848484852</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>233.4044848484852</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>293.9924848484852</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>338.1464848484852</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>366.2624848484852</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>413.3864848484852</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>418.7324848484852</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>426.6524848484852</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>446.8484848484852</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>446.8484848484852</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>315.5353535353539</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>315.5353535353539</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>315.5353535353539</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>236.7474747474744</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>236.7474747474744</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>197.3535353535346</v>
       </c>
     </row>
     <row r="4">
@@ -2839,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>151.3939393939379</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>131.6969696969689</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>131.6969696969689</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>131.6969696969689</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>131.6969696969689</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>138.928</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>186.052</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>216.742</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>270.598</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>317.722</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>344.65</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>354.9292929292918</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>354.9292929292918</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>354.9292929292918</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.6161616161605</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>223.6161616161605</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>223.6161616161605</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>223.6161616161605</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>223.6161616161605</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>184.2222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.2307927762477106</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>19.7</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>58.5</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>28.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>18.4</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3996,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>38.8</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -4032,10 +4032,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>51.62525252525251</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>

--- a/model/Output Files/Year 2.xlsx
+++ b/model/Output Files/Year 2.xlsx
@@ -531,13 +531,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>4.979999999999698</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>30.98000000000117</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77366.02327517605</v>
+        <v>77366.02327517603</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>10962.83414538837</v>
+        <v>15061.25607437521</v>
       </c>
       <c r="E2" t="n">
-        <v>9720</v>
+        <v>8850</v>
       </c>
       <c r="F2" t="n">
-        <v>46005.34788555123</v>
+        <v>43385.08822400845</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.6</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>27.2</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>40.8</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="L2" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="M2" t="n">
-        <v>61.2</v>
+        <v>9</v>
       </c>
       <c r="N2" t="n">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
-        <v>61.2</v>
+        <v>9</v>
       </c>
       <c r="P2" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="Q2" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="R2" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="S2" t="n">
-        <v>20.4</v>
+        <v>3</v>
       </c>
       <c r="T2" t="n">
-        <v>13.6</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1811,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27.2</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>40.8</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
-        <v>61.2</v>
+        <v>9</v>
       </c>
       <c r="M3" t="n">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="N3" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="P3" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="R3" t="n">
-        <v>20.4</v>
+        <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>13.6</v>
+        <v>2</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1891,31 +1891,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>27.2</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="N4" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="P4" t="n">
-        <v>27.2</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.38312417100186</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,43 +2052,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>64.3</v>
+        <v>52.7</v>
       </c>
       <c r="H2" t="n">
-        <v>53.7</v>
+        <v>30.5</v>
       </c>
       <c r="I2" t="n">
-        <v>2.8</v>
+        <v>22.6</v>
       </c>
       <c r="J2" t="n">
-        <v>60.3</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>21.6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>33.6</v>
+        <v>23.32525252525251</v>
       </c>
       <c r="M2" t="n">
-        <v>37.8</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="O2" t="n">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="P2" t="n">
-        <v>25.8</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>21.6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>58.82525252525249</v>
+        <v>43.4</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -2135,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27.43079277624771</v>
+        <v>29.93079277624768</v>
       </c>
       <c r="J3" t="n">
-        <v>40.8</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>54.4</v>
+        <v>140</v>
       </c>
       <c r="L3" t="n">
-        <v>61.2</v>
+        <v>9</v>
       </c>
       <c r="M3" t="n">
-        <v>44.6</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>28.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="P3" t="n">
-        <v>5.4</v>
+        <v>25.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="R3" t="n">
-        <v>20.4</v>
+        <v>93</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="K4" t="n">
-        <v>27.2</v>
+        <v>44</v>
       </c>
       <c r="L4" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="P4" t="n">
-        <v>27.2</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.38312417100186</v>
+        <v>22</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>71.38312417100185</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2367,13 +2367,13 @@
         <v>19.5</v>
       </c>
       <c r="D2" t="n">
-        <v>8.02000000000103</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>117</v>
+        <v>86.01999999999811</v>
       </c>
       <c r="V2" t="n">
         <v>97.5</v>
@@ -2685,55 +2685,55 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>139.7979797979801</v>
+        <v>171.0909090909106</v>
       </c>
       <c r="C2" t="n">
-        <v>120.1010101010111</v>
+        <v>151.3939393939416</v>
       </c>
       <c r="D2" t="n">
-        <v>112</v>
+        <v>138.2626262626277</v>
       </c>
       <c r="E2" t="n">
-        <v>112</v>
+        <v>125.1313131313139</v>
       </c>
       <c r="F2" t="n">
         <v>112</v>
       </c>
       <c r="G2" t="n">
-        <v>175.657</v>
+        <v>164.173</v>
       </c>
       <c r="H2" t="n">
-        <v>228.82</v>
+        <v>194.368</v>
       </c>
       <c r="I2" t="n">
-        <v>231.592</v>
+        <v>216.742</v>
       </c>
       <c r="J2" t="n">
-        <v>291.289</v>
+        <v>216.742</v>
       </c>
       <c r="K2" t="n">
-        <v>312.673</v>
+        <v>216.742</v>
       </c>
       <c r="L2" t="n">
-        <v>345.937</v>
+        <v>239.834</v>
       </c>
       <c r="M2" t="n">
-        <v>383.359</v>
+        <v>239.834</v>
       </c>
       <c r="N2" t="n">
-        <v>424.939</v>
+        <v>378.434</v>
       </c>
       <c r="O2" t="n">
-        <v>454.639</v>
+        <v>517.034</v>
       </c>
       <c r="P2" t="n">
-        <v>480.181</v>
+        <v>517.034</v>
       </c>
       <c r="Q2" t="n">
-        <v>501.5650000000001</v>
+        <v>517.034</v>
       </c>
       <c r="R2" t="n">
-        <v>501.763</v>
+        <v>517.034</v>
       </c>
       <c r="S2" t="n">
         <v>560</v>
@@ -2742,19 +2742,19 @@
         <v>560</v>
       </c>
       <c r="U2" t="n">
-        <v>441.8181818181826</v>
+        <v>473.1111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>343.3333333333333</v>
+        <v>374.6262626262645</v>
       </c>
       <c r="W2" t="n">
-        <v>264.5454545454545</v>
+        <v>295.838383838385</v>
       </c>
       <c r="X2" t="n">
-        <v>212.0202020202027</v>
+        <v>243.3131313131332</v>
       </c>
       <c r="Y2" t="n">
-        <v>172.6262626262629</v>
+        <v>203.9191919191934</v>
       </c>
     </row>
     <row r="3">
@@ -2783,31 +2783,31 @@
         <v>112</v>
       </c>
       <c r="I3" t="n">
-        <v>139.1564848484852</v>
+        <v>141.6314848484852</v>
       </c>
       <c r="J3" t="n">
-        <v>179.5484848484852</v>
+        <v>147.5714848484852</v>
       </c>
       <c r="K3" t="n">
-        <v>233.4044848484852</v>
+        <v>286.1714848484852</v>
       </c>
       <c r="L3" t="n">
-        <v>293.9924848484852</v>
+        <v>295.0814848484852</v>
       </c>
       <c r="M3" t="n">
-        <v>338.1464848484852</v>
+        <v>295.0814848484852</v>
       </c>
       <c r="N3" t="n">
-        <v>366.2624848484852</v>
+        <v>295.0814848484852</v>
       </c>
       <c r="O3" t="n">
-        <v>413.3864848484852</v>
+        <v>302.0114848484852</v>
       </c>
       <c r="P3" t="n">
-        <v>418.7324848484852</v>
+        <v>327.0584848484853</v>
       </c>
       <c r="Q3" t="n">
-        <v>426.6524848484852</v>
+        <v>354.7784848484852</v>
       </c>
       <c r="R3" t="n">
         <v>446.8484848484852</v>
@@ -2863,28 +2863,28 @@
         <v>112</v>
       </c>
       <c r="J4" t="n">
-        <v>112</v>
+        <v>193.18</v>
       </c>
       <c r="K4" t="n">
-        <v>138.928</v>
+        <v>236.74</v>
       </c>
       <c r="L4" t="n">
-        <v>186.052</v>
+        <v>243.67</v>
       </c>
       <c r="M4" t="n">
-        <v>216.742</v>
+        <v>243.67</v>
       </c>
       <c r="N4" t="n">
-        <v>270.598</v>
+        <v>251.59</v>
       </c>
       <c r="O4" t="n">
-        <v>317.722</v>
+        <v>258.52</v>
       </c>
       <c r="P4" t="n">
-        <v>344.65</v>
+        <v>262.48</v>
       </c>
       <c r="Q4" t="n">
-        <v>354.9292929292918</v>
+        <v>284.26</v>
       </c>
       <c r="R4" t="n">
         <v>354.9292929292918</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2307927762477106</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>40.38312417100185</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3678,19 +3678,19 @@
         <v>39.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>48.8</v>
       </c>
       <c r="J2" t="n">
-        <v>58.5</v>
+        <v>33</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>36.12525252525251</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -3699,19 +3699,19 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>20.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>28.8</v>
       </c>
       <c r="S2" t="n">
         <v>28.4</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3755,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>25.93079277624768</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>13.4</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -3776,13 +3776,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>48.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S3" t="n">
         <v>18.4</v>
@@ -3835,10 +3835,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -3856,10 +3856,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -4017,10 +4017,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>162.2</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -4032,10 +4032,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>51.62525252525251</v>
+        <v>53.6</v>
       </c>
       <c r="T2" t="n">
-        <v>20.4</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4085,7 +4085,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="S3" t="n">
-        <v>9.6</v>
+        <v>21.2</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>15.4</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 2.xlsx
+++ b/model/Output Files/Year 2.xlsx
@@ -576,13 +576,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>29.25999999998332</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>30.98000000000117</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77366.02327517603</v>
+        <v>80548.48807672625</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D2" t="n">
-        <v>15061.25607437521</v>
+        <v>16320.59238740235</v>
       </c>
       <c r="E2" t="n">
-        <v>8850</v>
+        <v>9050</v>
       </c>
       <c r="F2" t="n">
-        <v>43385.08822400845</v>
+        <v>44621.29347400689</v>
       </c>
     </row>
   </sheetData>
@@ -1216,10 +1216,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
@@ -1404,46 +1404,46 @@
         <v>-13</v>
       </c>
       <c r="G2" t="n">
-        <v>142.5</v>
+        <v>22.1</v>
       </c>
       <c r="H2" t="n">
-        <v>291.5</v>
+        <v>50.7</v>
       </c>
       <c r="I2" t="n">
-        <v>327</v>
+        <v>26</v>
       </c>
       <c r="J2" t="n">
-        <v>388.5</v>
+        <v>27.3</v>
       </c>
       <c r="K2" t="n">
-        <v>502</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>596</v>
+        <v>114.4</v>
       </c>
       <c r="M2" t="n">
-        <v>670.5</v>
+        <v>128.7</v>
       </c>
       <c r="N2" t="n">
-        <v>745</v>
+        <v>143</v>
       </c>
       <c r="O2" t="n">
-        <v>651</v>
+        <v>109.2</v>
       </c>
       <c r="P2" t="n">
-        <v>576.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>502</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>320.5</v>
+        <v>19.5</v>
       </c>
       <c r="S2" t="n">
-        <v>139</v>
+        <v>-41.60000000000001</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>-88.40000000000001</v>
       </c>
       <c r="U2" t="n">
         <v>-117</v>
@@ -1487,37 +1487,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>324</v>
+        <v>83.2</v>
       </c>
       <c r="J3" t="n">
-        <v>486</v>
+        <v>124.8</v>
       </c>
       <c r="K3" t="n">
-        <v>648</v>
+        <v>166.4</v>
       </c>
       <c r="L3" t="n">
-        <v>729</v>
+        <v>187.2</v>
       </c>
       <c r="M3" t="n">
-        <v>751.5</v>
+        <v>149.5</v>
       </c>
       <c r="N3" t="n">
-        <v>583</v>
+        <v>101.4</v>
       </c>
       <c r="O3" t="n">
-        <v>567</v>
+        <v>145.6</v>
       </c>
       <c r="P3" t="n">
-        <v>333.5</v>
+        <v>32.49999999999999</v>
       </c>
       <c r="Q3" t="n">
-        <v>340</v>
+        <v>39</v>
       </c>
       <c r="R3" t="n">
-        <v>243</v>
+        <v>62.4</v>
       </c>
       <c r="S3" t="n">
-        <v>57.99999999999999</v>
+        <v>-62.40000000000001</v>
       </c>
       <c r="T3" t="n">
         <v>-130</v>
@@ -1567,31 +1567,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>81</v>
+        <v>20.8</v>
       </c>
       <c r="K4" t="n">
-        <v>324</v>
+        <v>83.2</v>
       </c>
       <c r="L4" t="n">
-        <v>567</v>
+        <v>145.6</v>
       </c>
       <c r="M4" t="n">
-        <v>589.5</v>
+        <v>107.9</v>
       </c>
       <c r="N4" t="n">
-        <v>648</v>
+        <v>166.4</v>
       </c>
       <c r="O4" t="n">
-        <v>567</v>
+        <v>145.6</v>
       </c>
       <c r="P4" t="n">
-        <v>324</v>
+        <v>83.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>162</v>
+        <v>41.6</v>
       </c>
       <c r="R4" t="n">
-        <v>81</v>
+        <v>20.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,43 +2052,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>52.7</v>
+        <v>24.1</v>
       </c>
       <c r="H2" t="n">
-        <v>30.5</v>
+        <v>54.7</v>
       </c>
       <c r="I2" t="n">
-        <v>22.6</v>
+        <v>21.8</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>23.32525252525251</v>
+        <v>47.2181818181818</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>116.1</v>
       </c>
       <c r="N2" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>24.5</v>
       </c>
       <c r="S2" t="n">
-        <v>43.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -2135,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>29.93079277624768</v>
+        <v>19.2</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K3" t="n">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>171</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.157157432915384</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7</v>
+        <v>33.6</v>
       </c>
       <c r="P3" t="n">
-        <v>25.3</v>
+        <v>37.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="R3" t="n">
-        <v>93</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="K4" t="n">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
+        <v>152</v>
+      </c>
+      <c r="O4" t="n">
+        <v>14</v>
+      </c>
+      <c r="P4" t="n">
         <v>8</v>
       </c>
-      <c r="O4" t="n">
-        <v>7</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4</v>
-      </c>
       <c r="Q4" t="n">
-        <v>22</v>
+        <v>8.583124171001877</v>
       </c>
       <c r="R4" t="n">
-        <v>71.38312417100185</v>
+        <v>21.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2412,13 +2412,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>9.339999999998858</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="U2" t="n">
-        <v>86.01999999999811</v>
+        <v>117</v>
       </c>
       <c r="V2" t="n">
         <v>97.5</v>
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>60.4</v>
       </c>
       <c r="T3" t="n">
         <v>130</v>
@@ -2685,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>171.0909090909106</v>
+        <v>203.0909090909106</v>
       </c>
       <c r="C2" t="n">
-        <v>151.3939393939416</v>
+        <v>183.3939393939416</v>
       </c>
       <c r="D2" t="n">
-        <v>138.2626262626277</v>
+        <v>170.2626262626277</v>
       </c>
       <c r="E2" t="n">
-        <v>125.1313131313139</v>
+        <v>157.1313131313139</v>
       </c>
       <c r="F2" t="n">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="G2" t="n">
-        <v>164.173</v>
+        <v>167.859</v>
       </c>
       <c r="H2" t="n">
-        <v>194.368</v>
+        <v>222.012</v>
       </c>
       <c r="I2" t="n">
-        <v>216.742</v>
+        <v>243.594</v>
       </c>
       <c r="J2" t="n">
-        <v>216.742</v>
+        <v>276.561</v>
       </c>
       <c r="K2" t="n">
-        <v>216.742</v>
+        <v>363.285</v>
       </c>
       <c r="L2" t="n">
-        <v>239.834</v>
+        <v>410.031</v>
       </c>
       <c r="M2" t="n">
-        <v>239.834</v>
+        <v>524.97</v>
       </c>
       <c r="N2" t="n">
-        <v>378.434</v>
+        <v>524.97</v>
       </c>
       <c r="O2" t="n">
-        <v>517.034</v>
+        <v>524.97</v>
       </c>
       <c r="P2" t="n">
-        <v>517.034</v>
+        <v>609.021</v>
       </c>
       <c r="Q2" t="n">
-        <v>517.034</v>
+        <v>695.745</v>
       </c>
       <c r="R2" t="n">
-        <v>517.034</v>
+        <v>720</v>
       </c>
       <c r="S2" t="n">
-        <v>560</v>
+        <v>710.5656565656577</v>
       </c>
       <c r="T2" t="n">
-        <v>560</v>
+        <v>623.2929292929305</v>
       </c>
       <c r="U2" t="n">
-        <v>473.1111111111111</v>
+        <v>505.1111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>374.6262626262645</v>
+        <v>406.6262626262645</v>
       </c>
       <c r="W2" t="n">
-        <v>295.838383838385</v>
+        <v>327.838383838385</v>
       </c>
       <c r="X2" t="n">
-        <v>243.3131313131332</v>
+        <v>275.3131313131332</v>
       </c>
       <c r="Y2" t="n">
-        <v>203.9191919191934</v>
+        <v>235.9191919191934</v>
       </c>
     </row>
     <row r="3">
@@ -2762,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>164.5252525252518</v>
+        <v>196.5252525252518</v>
       </c>
       <c r="C3" t="n">
-        <v>144.8282828282828</v>
+        <v>176.8282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>131.6969696969689</v>
+        <v>163.6969696969689</v>
       </c>
       <c r="E3" t="n">
-        <v>131.6969696969689</v>
+        <v>163.6969696969689</v>
       </c>
       <c r="F3" t="n">
-        <v>131.6969696969689</v>
+        <v>163.6969696969689</v>
       </c>
       <c r="G3" t="n">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="H3" t="n">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="I3" t="n">
-        <v>141.6314848484852</v>
+        <v>163.008</v>
       </c>
       <c r="J3" t="n">
-        <v>147.5714848484852</v>
+        <v>174.888</v>
       </c>
       <c r="K3" t="n">
-        <v>286.1714848484852</v>
+        <v>190.728</v>
       </c>
       <c r="L3" t="n">
-        <v>295.0814848484852</v>
+        <v>360.018</v>
       </c>
       <c r="M3" t="n">
-        <v>295.0814848484852</v>
+        <v>361.1635858585863</v>
       </c>
       <c r="N3" t="n">
-        <v>295.0814848484852</v>
+        <v>361.1635858585863</v>
       </c>
       <c r="O3" t="n">
-        <v>302.0114848484852</v>
+        <v>394.4275858585863</v>
       </c>
       <c r="P3" t="n">
-        <v>327.0584848484853</v>
+        <v>431.5525858585863</v>
       </c>
       <c r="Q3" t="n">
-        <v>354.7784848484852</v>
+        <v>475.1125858585863</v>
       </c>
       <c r="R3" t="n">
-        <v>446.8484848484852</v>
+        <v>539.8585858585863</v>
       </c>
       <c r="S3" t="n">
-        <v>446.8484848484852</v>
+        <v>478.8484848484852</v>
       </c>
       <c r="T3" t="n">
-        <v>315.5353535353539</v>
+        <v>347.5353535353539</v>
       </c>
       <c r="U3" t="n">
-        <v>315.5353535353539</v>
+        <v>347.5353535353539</v>
       </c>
       <c r="V3" t="n">
-        <v>315.5353535353539</v>
+        <v>347.5353535353539</v>
       </c>
       <c r="W3" t="n">
-        <v>236.7474747474744</v>
+        <v>268.7474747474744</v>
       </c>
       <c r="X3" t="n">
-        <v>236.7474747474744</v>
+        <v>268.7474747474744</v>
       </c>
       <c r="Y3" t="n">
-        <v>197.3535353535346</v>
+        <v>229.3535353535346</v>
       </c>
     </row>
     <row r="4">
@@ -2839,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>151.3939393939379</v>
+        <v>183.3939393939379</v>
       </c>
       <c r="C4" t="n">
-        <v>131.6969696969689</v>
+        <v>163.6969696969689</v>
       </c>
       <c r="D4" t="n">
-        <v>131.6969696969689</v>
+        <v>163.6969696969689</v>
       </c>
       <c r="E4" t="n">
-        <v>131.6969696969689</v>
+        <v>163.6969696969689</v>
       </c>
       <c r="F4" t="n">
-        <v>131.6969696969689</v>
+        <v>163.6969696969689</v>
       </c>
       <c r="G4" t="n">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="H4" t="n">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="I4" t="n">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="J4" t="n">
-        <v>193.18</v>
+        <v>162.81</v>
       </c>
       <c r="K4" t="n">
-        <v>236.74</v>
+        <v>170.73</v>
       </c>
       <c r="L4" t="n">
-        <v>243.67</v>
+        <v>184.59</v>
       </c>
       <c r="M4" t="n">
-        <v>243.67</v>
+        <v>184.59</v>
       </c>
       <c r="N4" t="n">
-        <v>251.59</v>
+        <v>335.0699999999999</v>
       </c>
       <c r="O4" t="n">
-        <v>258.52</v>
+        <v>348.9299999999999</v>
       </c>
       <c r="P4" t="n">
-        <v>262.48</v>
+        <v>356.85</v>
       </c>
       <c r="Q4" t="n">
-        <v>284.26</v>
+        <v>365.3472929292918</v>
       </c>
       <c r="R4" t="n">
-        <v>354.9292929292918</v>
+        <v>386.9292929292918</v>
       </c>
       <c r="S4" t="n">
-        <v>354.9292929292918</v>
+        <v>386.9292929292918</v>
       </c>
       <c r="T4" t="n">
-        <v>223.6161616161605</v>
+        <v>255.6161616161605</v>
       </c>
       <c r="U4" t="n">
-        <v>223.6161616161605</v>
+        <v>255.6161616161605</v>
       </c>
       <c r="V4" t="n">
-        <v>223.6161616161605</v>
+        <v>255.6161616161605</v>
       </c>
       <c r="W4" t="n">
-        <v>223.6161616161605</v>
+        <v>255.6161616161605</v>
       </c>
       <c r="X4" t="n">
-        <v>223.6161616161605</v>
+        <v>255.6161616161605</v>
       </c>
       <c r="Y4" t="n">
-        <v>184.2222222222222</v>
+        <v>216.2222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3348,25 +3348,25 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>23.8</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>44.2</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>52.81818181818181</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -3375,19 +3375,19 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3440,25 +3440,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>40.38312417100185</v>
+        <v>17</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3672,43 +3672,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>19.7</v>
+        <v>1.7</v>
       </c>
       <c r="H2" t="n">
-        <v>39.5</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>48.8</v>
+        <v>3.8</v>
       </c>
       <c r="J2" t="n">
-        <v>33</v>
+        <v>4.5</v>
       </c>
       <c r="K2" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="L2" t="n">
-        <v>36.12525252525251</v>
+        <v>7.2</v>
       </c>
       <c r="M2" t="n">
-        <v>14.4</v>
+        <v>8.1</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="P2" t="n">
-        <v>20.6</v>
+        <v>6.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="R2" t="n">
-        <v>28.8</v>
+        <v>3.7</v>
       </c>
       <c r="S2" t="n">
-        <v>28.4</v>
+        <v>1.4</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -3755,37 +3755,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>25.93079277624768</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M3" t="n">
-        <v>13.4</v>
+        <v>9.1</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P3" t="n">
-        <v>48.9</v>
+        <v>3.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="R3" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>18.4</v>
+        <v>0.4</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3835,31 +3835,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3996,19 +3996,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>38.8</v>
+        <v>4.4</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>15.6</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -4017,25 +4017,25 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>156</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>162.2</v>
+        <v>14.4</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>15.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S2" t="n">
-        <v>53.6</v>
+        <v>2</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4079,37 +4079,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>5.457157432915384</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>19.6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R3" t="n">
-        <v>60</v>
+        <v>8.4</v>
       </c>
       <c r="S3" t="n">
-        <v>21.2</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>15.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>4.583124171001877</v>
       </c>
       <c r="R4" t="n">
-        <v>20</v>
+        <v>2.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 2.xlsx
+++ b/model/Output Files/Year 2.xlsx
@@ -525,10 +525,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>29.25999999998332</v>
+        <v>22.2</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -585,16 +585,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>31.49387999999929</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>80548.48807672625</v>
+        <v>80328.53308475448</v>
       </c>
       <c r="C2" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="D2" t="n">
-        <v>16320.59238740235</v>
+        <v>19232.74059986476</v>
       </c>
       <c r="E2" t="n">
-        <v>9050</v>
+        <v>9790</v>
       </c>
       <c r="F2" t="n">
-        <v>44621.29347400689</v>
+        <v>40017.68726961262</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1216,10 +1216,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>15.2</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>30.4</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>45.6</v>
       </c>
       <c r="K2" t="n">
-        <v>7</v>
+        <v>53.2</v>
       </c>
       <c r="L2" t="n">
-        <v>8</v>
+        <v>60.8</v>
       </c>
       <c r="M2" t="n">
-        <v>9</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="O2" t="n">
-        <v>9</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>8</v>
+        <v>60.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>7</v>
+        <v>53.2</v>
       </c>
       <c r="R2" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>22.8</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>15.2</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1811,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>30.4</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>45.6</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>60.8</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="M3" t="n">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>60.8</v>
       </c>
       <c r="O3" t="n">
-        <v>7</v>
+        <v>49.99726558514364</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="Q3" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>22.8</v>
       </c>
       <c r="S3" t="n">
-        <v>2</v>
+        <v>15.2</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1891,31 +1891,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>30.4</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>53.2</v>
       </c>
       <c r="M4" t="n">
-        <v>8</v>
+        <v>60.8</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>60.8</v>
       </c>
       <c r="O4" t="n">
-        <v>7</v>
+        <v>53.2</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>10.38312417100261</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,40 +2052,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>24.1</v>
+        <v>7.400000000000729</v>
       </c>
       <c r="H2" t="n">
-        <v>54.7</v>
+        <v>17.4</v>
       </c>
       <c r="I2" t="n">
-        <v>21.8</v>
+        <v>6.799999999999272</v>
       </c>
       <c r="J2" t="n">
-        <v>33.3</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>87.59999999999999</v>
+        <v>27.2</v>
       </c>
       <c r="L2" t="n">
-        <v>47.2181818181818</v>
+        <v>40.00000000000073</v>
       </c>
       <c r="M2" t="n">
-        <v>116.1</v>
+        <v>45.00000000000037</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>37.19999999999928</v>
       </c>
       <c r="P2" t="n">
-        <v>84.90000000000001</v>
+        <v>32.19999999999964</v>
       </c>
       <c r="Q2" t="n">
-        <v>87.59999999999999</v>
+        <v>27.2</v>
       </c>
       <c r="R2" t="n">
-        <v>24.5</v>
+        <v>4.200000000000728</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -2135,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19.2</v>
+        <v>30.4</v>
       </c>
       <c r="J3" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="K3" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L3" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="M3" t="n">
+        <v>52.60000000000036</v>
+      </c>
+      <c r="N3" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="O3" t="n">
+        <v>49.99726558514364</v>
+      </c>
+      <c r="P3" t="n">
+        <v>9.399999999999636</v>
+      </c>
+      <c r="Q3" t="n">
         <v>12</v>
       </c>
-      <c r="K3" t="n">
-        <v>16</v>
-      </c>
-      <c r="L3" t="n">
-        <v>171</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.157157432915384</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>33.6</v>
-      </c>
-      <c r="P3" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>44</v>
-      </c>
       <c r="R3" t="n">
-        <v>65.40000000000001</v>
+        <v>22.8</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>8</v>
+        <v>30.4</v>
       </c>
       <c r="L4" t="n">
-        <v>14</v>
+        <v>53.2</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>37.40000000000037</v>
       </c>
       <c r="N4" t="n">
-        <v>152</v>
+        <v>60.8</v>
       </c>
       <c r="O4" t="n">
-        <v>14</v>
+        <v>53.2</v>
       </c>
       <c r="P4" t="n">
-        <v>8</v>
+        <v>10.38312417100261</v>
       </c>
       <c r="Q4" t="n">
-        <v>8.583124171001877</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.8</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2361,10 +2361,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>13</v>
@@ -2412,25 +2412,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>9.339999999998858</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>86.40000000000001</v>
+        <v>73.2</v>
       </c>
       <c r="U2" t="n">
         <v>117</v>
       </c>
       <c r="V2" t="n">
-        <v>97.5</v>
+        <v>66.00612000000071</v>
       </c>
       <c r="W2" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>60.4</v>
+        <v>47.59999999999927</v>
       </c>
       <c r="T3" t="n">
         <v>130</v>
@@ -2685,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>203.0909090909106</v>
+        <v>143.3939393939394</v>
       </c>
       <c r="C2" t="n">
-        <v>183.3939393939416</v>
+        <v>143.3939393939394</v>
       </c>
       <c r="D2" t="n">
-        <v>170.2626262626277</v>
+        <v>130.2626262626263</v>
       </c>
       <c r="E2" t="n">
-        <v>157.1313131313139</v>
+        <v>117.1313131313131</v>
       </c>
       <c r="F2" t="n">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="G2" t="n">
-        <v>167.859</v>
+        <v>111.3260000000007</v>
       </c>
       <c r="H2" t="n">
-        <v>222.012</v>
+        <v>128.5520000000007</v>
       </c>
       <c r="I2" t="n">
-        <v>243.594</v>
+        <v>135.284</v>
       </c>
       <c r="J2" t="n">
-        <v>276.561</v>
+        <v>141.818</v>
       </c>
       <c r="K2" t="n">
-        <v>363.285</v>
+        <v>168.746</v>
       </c>
       <c r="L2" t="n">
-        <v>410.031</v>
+        <v>208.3460000000007</v>
       </c>
       <c r="M2" t="n">
-        <v>524.97</v>
+        <v>252.8960000000011</v>
       </c>
       <c r="N2" t="n">
-        <v>524.97</v>
+        <v>302.3960000000011</v>
       </c>
       <c r="O2" t="n">
-        <v>524.97</v>
+        <v>339.2240000000004</v>
       </c>
       <c r="P2" t="n">
-        <v>609.021</v>
+        <v>371.102</v>
       </c>
       <c r="Q2" t="n">
-        <v>695.745</v>
+        <v>398.03</v>
       </c>
       <c r="R2" t="n">
-        <v>720</v>
+        <v>402.1880000000007</v>
       </c>
       <c r="S2" t="n">
-        <v>710.5656565656577</v>
+        <v>402.1880000000007</v>
       </c>
       <c r="T2" t="n">
-        <v>623.2929292929305</v>
+        <v>328.2486060606068</v>
       </c>
       <c r="U2" t="n">
-        <v>505.1111111111111</v>
+        <v>210.0667878787886</v>
       </c>
       <c r="V2" t="n">
-        <v>406.6262626262645</v>
+        <v>143.3939393939394</v>
       </c>
       <c r="W2" t="n">
-        <v>327.838383838385</v>
+        <v>143.3939393939394</v>
       </c>
       <c r="X2" t="n">
-        <v>275.3131313131332</v>
+        <v>143.3939393939394</v>
       </c>
       <c r="Y2" t="n">
-        <v>235.9191919191934</v>
+        <v>143.3939393939394</v>
       </c>
     </row>
     <row r="3">
@@ -2762,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>196.5252525252518</v>
+        <v>156.5252525252525</v>
       </c>
       <c r="C3" t="n">
-        <v>176.8282828282828</v>
+        <v>136.8282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>163.6969696969689</v>
+        <v>123.6969696969697</v>
       </c>
       <c r="E3" t="n">
-        <v>163.6969696969689</v>
+        <v>123.6969696969697</v>
       </c>
       <c r="F3" t="n">
-        <v>163.6969696969689</v>
+        <v>123.6969696969697</v>
       </c>
       <c r="G3" t="n">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="H3" t="n">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="I3" t="n">
-        <v>163.008</v>
+        <v>134.096</v>
       </c>
       <c r="J3" t="n">
-        <v>174.888</v>
+        <v>179.24</v>
       </c>
       <c r="K3" t="n">
-        <v>190.728</v>
+        <v>239.432</v>
       </c>
       <c r="L3" t="n">
-        <v>360.018</v>
+        <v>307.148</v>
       </c>
       <c r="M3" t="n">
-        <v>361.1635858585863</v>
+        <v>359.2220000000004</v>
       </c>
       <c r="N3" t="n">
-        <v>361.1635858585863</v>
+        <v>393.6740000000004</v>
       </c>
       <c r="O3" t="n">
-        <v>394.4275858585863</v>
+        <v>443.1712929292926</v>
       </c>
       <c r="P3" t="n">
-        <v>431.5525858585863</v>
+        <v>452.4772929292922</v>
       </c>
       <c r="Q3" t="n">
-        <v>475.1125858585863</v>
+        <v>464.3572929292922</v>
       </c>
       <c r="R3" t="n">
-        <v>539.8585858585863</v>
+        <v>486.9292929292922</v>
       </c>
       <c r="S3" t="n">
-        <v>478.8484848484852</v>
+        <v>438.8484848484849</v>
       </c>
       <c r="T3" t="n">
-        <v>347.5353535353539</v>
+        <v>307.5353535353535</v>
       </c>
       <c r="U3" t="n">
-        <v>347.5353535353539</v>
+        <v>307.5353535353535</v>
       </c>
       <c r="V3" t="n">
-        <v>347.5353535353539</v>
+        <v>307.5353535353535</v>
       </c>
       <c r="W3" t="n">
-        <v>268.7474747474744</v>
+        <v>228.7474747474747</v>
       </c>
       <c r="X3" t="n">
-        <v>268.7474747474744</v>
+        <v>228.7474747474747</v>
       </c>
       <c r="Y3" t="n">
-        <v>229.3535353535346</v>
+        <v>189.3535353535353</v>
       </c>
     </row>
     <row r="4">
@@ -2839,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>183.3939393939379</v>
+        <v>143.3939393939394</v>
       </c>
       <c r="C4" t="n">
-        <v>163.6969696969689</v>
+        <v>123.6969696969697</v>
       </c>
       <c r="D4" t="n">
-        <v>163.6969696969689</v>
+        <v>123.6969696969697</v>
       </c>
       <c r="E4" t="n">
-        <v>163.6969696969689</v>
+        <v>123.6969696969697</v>
       </c>
       <c r="F4" t="n">
-        <v>163.6969696969689</v>
+        <v>123.6969696969697</v>
       </c>
       <c r="G4" t="n">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="H4" t="n">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="I4" t="n">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="J4" t="n">
-        <v>162.81</v>
+        <v>104</v>
       </c>
       <c r="K4" t="n">
-        <v>170.73</v>
+        <v>134.096</v>
       </c>
       <c r="L4" t="n">
-        <v>184.59</v>
+        <v>186.764</v>
       </c>
       <c r="M4" t="n">
-        <v>184.59</v>
+        <v>223.7900000000004</v>
       </c>
       <c r="N4" t="n">
-        <v>335.0699999999999</v>
+        <v>283.9820000000004</v>
       </c>
       <c r="O4" t="n">
-        <v>348.9299999999999</v>
+        <v>336.6500000000004</v>
       </c>
       <c r="P4" t="n">
-        <v>356.85</v>
+        <v>346.929292929293</v>
       </c>
       <c r="Q4" t="n">
-        <v>365.3472929292918</v>
+        <v>346.929292929293</v>
       </c>
       <c r="R4" t="n">
-        <v>386.9292929292918</v>
+        <v>346.929292929293</v>
       </c>
       <c r="S4" t="n">
-        <v>386.9292929292918</v>
+        <v>346.929292929293</v>
       </c>
       <c r="T4" t="n">
-        <v>255.6161616161605</v>
+        <v>215.6161616161616</v>
       </c>
       <c r="U4" t="n">
-        <v>255.6161616161605</v>
+        <v>215.6161616161616</v>
       </c>
       <c r="V4" t="n">
-        <v>255.6161616161605</v>
+        <v>215.6161616161616</v>
       </c>
       <c r="W4" t="n">
-        <v>255.6161616161605</v>
+        <v>215.6161616161616</v>
       </c>
       <c r="X4" t="n">
-        <v>255.6161616161605</v>
+        <v>215.6161616161616</v>
       </c>
       <c r="Y4" t="n">
-        <v>216.2222222222222</v>
+        <v>176.2222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3348,25 +3348,25 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>23.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>44.2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>52.81818181818181</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>122.4</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -3375,13 +3375,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>98.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>40.8</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -3440,25 +3440,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3672,43 +3672,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -3755,37 +3755,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3835,31 +3835,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>7.1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3996,19 +3996,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>10.8</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -4017,22 +4017,22 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>14.4</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -4091,22 +4091,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>5.457157432915384</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19.6</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.583124171001877</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 2.xlsx
+++ b/model/Output Files/Year 2.xlsx
@@ -531,13 +531,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>4.979999999999698</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>30.98000000000112</v>
       </c>
     </row>
     <row r="3">
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77366.02327517605</v>
+        <v>77366.02695740356</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>10962.83414538837</v>
+        <v>10962.83460566681</v>
       </c>
       <c r="E2" t="n">
         <v>9720</v>
       </c>
       <c r="F2" t="n">
-        <v>46005.34788555123</v>
+        <v>46005.35050055738</v>
       </c>
     </row>
   </sheetData>
@@ -1236,7 +1236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1245,30 +1245,50 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Type 1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Type 2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Type 3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Type 4</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Type 5</t>
-        </is>
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="2">
@@ -1279,15 +1299,245 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2" t="n">
+        <v>15</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15</v>
+      </c>
+      <c r="H2" t="n">
+        <v>15</v>
+      </c>
+      <c r="I2" t="n">
+        <v>15</v>
+      </c>
+      <c r="J2" t="n">
+        <v>15</v>
+      </c>
+      <c r="K2" t="n">
+        <v>15</v>
+      </c>
+      <c r="L2" t="n">
+        <v>15</v>
+      </c>
+      <c r="M2" t="n">
+        <v>15</v>
+      </c>
+      <c r="N2" t="n">
+        <v>15</v>
+      </c>
+      <c r="O2" t="n">
+        <v>15</v>
+      </c>
+      <c r="P2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
         <v>34</v>
       </c>
-      <c r="D2" t="n">
+      <c r="C3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>34</v>
+      </c>
+      <c r="E3" t="n">
+        <v>34</v>
+      </c>
+      <c r="F3" t="n">
+        <v>34</v>
+      </c>
+      <c r="G3" t="n">
+        <v>34</v>
+      </c>
+      <c r="H3" t="n">
+        <v>34</v>
+      </c>
+      <c r="I3" t="n">
+        <v>34</v>
+      </c>
+      <c r="J3" t="n">
+        <v>34</v>
+      </c>
+      <c r="K3" t="n">
+        <v>34</v>
+      </c>
+      <c r="L3" t="n">
+        <v>34</v>
+      </c>
+      <c r="M3" t="n">
+        <v>34</v>
+      </c>
+      <c r="N3" t="n">
+        <v>34</v>
+      </c>
+      <c r="O3" t="n">
+        <v>34</v>
+      </c>
+      <c r="P3" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="F2" t="n">
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>11</v>
+      </c>
+      <c r="F6" t="n">
+        <v>11</v>
+      </c>
+      <c r="G6" t="n">
+        <v>11</v>
+      </c>
+      <c r="H6" t="n">
+        <v>11</v>
+      </c>
+      <c r="I6" t="n">
+        <v>11</v>
+      </c>
+      <c r="J6" t="n">
+        <v>11</v>
+      </c>
+      <c r="K6" t="n">
+        <v>11</v>
+      </c>
+      <c r="L6" t="n">
+        <v>11</v>
+      </c>
+      <c r="M6" t="n">
+        <v>11</v>
+      </c>
+      <c r="N6" t="n">
+        <v>11</v>
+      </c>
+      <c r="O6" t="n">
+        <v>11</v>
+      </c>
+      <c r="P6" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1891,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="K4" t="n">
         <v>27.2</v>
       </c>
       <c r="L4" t="n">
-        <v>47.6</v>
+        <v>30.7831241710018</v>
       </c>
       <c r="M4" t="n">
         <v>54.4</v>
@@ -1912,10 +2162,10 @@
         <v>27.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.38312417100186</v>
+        <v>13.6</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,16 +2302,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>64.3</v>
+        <v>5.8</v>
       </c>
       <c r="H2" t="n">
         <v>53.7</v>
       </c>
       <c r="I2" t="n">
-        <v>2.8</v>
+        <v>51.59990000020707</v>
       </c>
       <c r="J2" t="n">
-        <v>60.3</v>
+        <v>115.8</v>
       </c>
       <c r="K2" t="n">
         <v>21.6</v>
@@ -2088,10 +2338,10 @@
         <v>0.2</v>
       </c>
       <c r="S2" t="n">
-        <v>58.82525252525249</v>
+        <v>7.2</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>5.825352525042177</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2135,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27.43079277624771</v>
+        <v>27.43079277624774</v>
       </c>
       <c r="J3" t="n">
         <v>40.8</v>
@@ -2215,13 +2465,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="K4" t="n">
         <v>27.2</v>
       </c>
       <c r="L4" t="n">
-        <v>47.6</v>
+        <v>30.7831241710018</v>
       </c>
       <c r="M4" t="n">
         <v>31</v>
@@ -2236,10 +2486,10 @@
         <v>27.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.38312417100186</v>
+        <v>13.6</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2367,13 +2617,13 @@
         <v>19.5</v>
       </c>
       <c r="D2" t="n">
-        <v>8.02000000000103</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2430,7 +2680,7 @@
         <v>52</v>
       </c>
       <c r="Y2" t="n">
-        <v>39</v>
+        <v>8.019999999999243</v>
       </c>
     </row>
     <row r="3">
@@ -2685,58 +2935,58 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>139.7979797979801</v>
+        <v>171.0909090909105</v>
       </c>
       <c r="C2" t="n">
-        <v>120.1010101010111</v>
+        <v>151.3939393939416</v>
       </c>
       <c r="D2" t="n">
-        <v>112</v>
+        <v>138.2626262626277</v>
       </c>
       <c r="E2" t="n">
-        <v>112</v>
+        <v>125.1313131313139</v>
       </c>
       <c r="F2" t="n">
         <v>112</v>
       </c>
       <c r="G2" t="n">
-        <v>175.657</v>
+        <v>117.742</v>
       </c>
       <c r="H2" t="n">
-        <v>228.82</v>
+        <v>170.905</v>
       </c>
       <c r="I2" t="n">
-        <v>231.592</v>
+        <v>221.988901000205</v>
       </c>
       <c r="J2" t="n">
-        <v>291.289</v>
+        <v>336.630901000205</v>
       </c>
       <c r="K2" t="n">
-        <v>312.673</v>
+        <v>358.014901000205</v>
       </c>
       <c r="L2" t="n">
-        <v>345.937</v>
+        <v>391.278901000205</v>
       </c>
       <c r="M2" t="n">
-        <v>383.359</v>
+        <v>428.700901000205</v>
       </c>
       <c r="N2" t="n">
-        <v>424.939</v>
+        <v>470.280901000205</v>
       </c>
       <c r="O2" t="n">
-        <v>454.639</v>
+        <v>499.980901000205</v>
       </c>
       <c r="P2" t="n">
-        <v>480.181</v>
+        <v>525.522901000205</v>
       </c>
       <c r="Q2" t="n">
-        <v>501.5650000000001</v>
+        <v>546.906901000205</v>
       </c>
       <c r="R2" t="n">
-        <v>501.763</v>
+        <v>547.104901000205</v>
       </c>
       <c r="S2" t="n">
-        <v>560</v>
+        <v>554.2329010002082</v>
       </c>
       <c r="T2" t="n">
         <v>560</v>
@@ -2754,7 +3004,7 @@
         <v>212.0202020202027</v>
       </c>
       <c r="Y2" t="n">
-        <v>172.6262626262629</v>
+        <v>203.9191919191934</v>
       </c>
     </row>
     <row r="3">
@@ -2762,76 +3012,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>164.5252525252518</v>
+        <v>277.6767676767665</v>
       </c>
       <c r="C3" t="n">
-        <v>144.8282828282828</v>
+        <v>257.9797979797976</v>
       </c>
       <c r="D3" t="n">
-        <v>131.6969696969689</v>
+        <v>244.8484848484837</v>
       </c>
       <c r="E3" t="n">
-        <v>131.6969696969689</v>
+        <v>244.8484848484837</v>
       </c>
       <c r="F3" t="n">
-        <v>131.6969696969689</v>
+        <v>244.8484848484837</v>
       </c>
       <c r="G3" t="n">
-        <v>112</v>
+        <v>225.1515151515147</v>
       </c>
       <c r="H3" t="n">
-        <v>112</v>
+        <v>225.1515151515147</v>
       </c>
       <c r="I3" t="n">
-        <v>139.1564848484852</v>
+        <v>252.308</v>
       </c>
       <c r="J3" t="n">
-        <v>179.5484848484852</v>
+        <v>292.7</v>
       </c>
       <c r="K3" t="n">
-        <v>233.4044848484852</v>
+        <v>346.556</v>
       </c>
       <c r="L3" t="n">
-        <v>293.9924848484852</v>
+        <v>407.144</v>
       </c>
       <c r="M3" t="n">
-        <v>338.1464848484852</v>
+        <v>451.298</v>
       </c>
       <c r="N3" t="n">
-        <v>366.2624848484852</v>
+        <v>479.414</v>
       </c>
       <c r="O3" t="n">
-        <v>413.3864848484852</v>
+        <v>526.538</v>
       </c>
       <c r="P3" t="n">
-        <v>418.7324848484852</v>
+        <v>531.884</v>
       </c>
       <c r="Q3" t="n">
-        <v>426.6524848484852</v>
+        <v>539.804</v>
       </c>
       <c r="R3" t="n">
-        <v>446.8484848484852</v>
+        <v>560</v>
       </c>
       <c r="S3" t="n">
-        <v>446.8484848484852</v>
+        <v>560</v>
       </c>
       <c r="T3" t="n">
-        <v>315.5353535353539</v>
+        <v>428.6868686868687</v>
       </c>
       <c r="U3" t="n">
-        <v>315.5353535353539</v>
+        <v>428.6868686868687</v>
       </c>
       <c r="V3" t="n">
-        <v>315.5353535353539</v>
+        <v>428.6868686868687</v>
       </c>
       <c r="W3" t="n">
-        <v>236.7474747474744</v>
+        <v>349.8989898989892</v>
       </c>
       <c r="X3" t="n">
-        <v>236.7474747474744</v>
+        <v>349.8989898989892</v>
       </c>
       <c r="Y3" t="n">
-        <v>197.3535353535346</v>
+        <v>310.5050505050494</v>
       </c>
     </row>
     <row r="4">
@@ -2863,28 +3113,28 @@
         <v>112</v>
       </c>
       <c r="J4" t="n">
-        <v>112</v>
+        <v>118.732</v>
       </c>
       <c r="K4" t="n">
-        <v>138.928</v>
+        <v>145.66</v>
       </c>
       <c r="L4" t="n">
-        <v>186.052</v>
+        <v>176.1352929292918</v>
       </c>
       <c r="M4" t="n">
-        <v>216.742</v>
+        <v>206.8252929292918</v>
       </c>
       <c r="N4" t="n">
-        <v>270.598</v>
+        <v>260.6812929292918</v>
       </c>
       <c r="O4" t="n">
-        <v>317.722</v>
+        <v>307.8052929292918</v>
       </c>
       <c r="P4" t="n">
-        <v>344.65</v>
+        <v>334.7332929292918</v>
       </c>
       <c r="Q4" t="n">
-        <v>354.9292929292918</v>
+        <v>348.1972929292918</v>
       </c>
       <c r="R4" t="n">
         <v>354.9292929292918</v>
@@ -3387,7 +3637,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>26.22535252504218</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3431,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2307927762477106</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -3461,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3672,16 +3922,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>19.7</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>39.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>48.8</v>
       </c>
       <c r="J2" t="n">
-        <v>58.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -3755,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.2307933532296756</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -3785,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>18.4</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3996,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>38.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -4005,7 +4255,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -4032,10 +4282,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>51.62525252525251</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>20.4</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4109,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>

--- a/model/Output Files/Year 2.xlsx
+++ b/model/Output Files/Year 2.xlsx
@@ -15,12 +15,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 1" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 2" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 3" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 4" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 5" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -525,28 +523,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>120.0100000003749</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>120.0100000035894</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>120.0099999999931</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>185.3039999976151</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.156980372092221e-09</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -564,34 +562,34 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>120.0099999984341</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>236.2137743861782</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>120.0099999999948</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>120.0099999999948</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>120.0099999990859</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>120.0099999999948</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>120.0099999999947</v>
       </c>
       <c r="X2" t="n">
-        <v>32.42799999993016</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -757,396 +755,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Y4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Total Revenues</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Total Capital Costs</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Variable Costs</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Fixed Costs</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Total Profits</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>80546.17244035981</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16419.76954614429</v>
-      </c>
-      <c r="E2" t="n">
-        <v>9045</v>
-      </c>
-      <c r="F2" t="n">
-        <v>44705.30224349932</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1203,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>10173</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1216,10 +824,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>179</v>
+        <v>5323</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
@@ -1230,13 +838,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1296,49 +904,49 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="H2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="I2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="K2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="L2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="M2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="O2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="P2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
     </row>
     <row r="3">
@@ -1346,49 +954,49 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="D3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="E3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="F3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="G3" t="n">
-        <v>34</v>
+        <v>484</v>
       </c>
       <c r="H3" t="n">
-        <v>34</v>
+        <v>487</v>
       </c>
       <c r="I3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="J3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="K3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="L3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="M3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="N3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="O3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="P3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4">
@@ -1396,149 +1004,49 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11</v>
-      </c>
-      <c r="E6" t="n">
-        <v>11</v>
-      </c>
-      <c r="F6" t="n">
-        <v>11</v>
-      </c>
-      <c r="G6" t="n">
-        <v>11</v>
-      </c>
-      <c r="H6" t="n">
-        <v>11</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>11</v>
-      </c>
-      <c r="K6" t="n">
-        <v>11</v>
-      </c>
-      <c r="L6" t="n">
-        <v>11</v>
-      </c>
-      <c r="M6" t="n">
-        <v>11</v>
-      </c>
-      <c r="N6" t="n">
-        <v>11</v>
-      </c>
-      <c r="O6" t="n">
-        <v>11</v>
-      </c>
-      <c r="P6" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1546,7 +1054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1639,76 +1147,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-32.5</v>
+        <v>-1211.51</v>
       </c>
       <c r="C2" t="n">
-        <v>-19.5</v>
+        <v>-1136.26</v>
       </c>
       <c r="D2" t="n">
-        <v>-13</v>
+        <v>-1061.81</v>
       </c>
       <c r="E2" t="n">
-        <v>-13</v>
+        <v>-996.17</v>
       </c>
       <c r="F2" t="n">
-        <v>-13</v>
+        <v>-977.63</v>
       </c>
       <c r="G2" t="n">
-        <v>22.1</v>
+        <v>-866.895</v>
       </c>
       <c r="H2" t="n">
-        <v>50.7</v>
+        <v>-775.78</v>
       </c>
       <c r="I2" t="n">
-        <v>26</v>
+        <v>-566.6700000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>27.3</v>
+        <v>-390.5800000000002</v>
       </c>
       <c r="K2" t="n">
-        <v>80.59999999999999</v>
+        <v>-468.3050000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>114.4</v>
+        <v>-559.8699999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>128.7</v>
+        <v>-699.625</v>
       </c>
       <c r="N2" t="n">
-        <v>143</v>
+        <v>-920.71</v>
       </c>
       <c r="O2" t="n">
-        <v>109.2</v>
+        <v>-1118.445</v>
       </c>
       <c r="P2" t="n">
-        <v>94.90000000000001</v>
+        <v>-1160.89</v>
       </c>
       <c r="Q2" t="n">
-        <v>80.59999999999999</v>
+        <v>-1156.31</v>
       </c>
       <c r="R2" t="n">
-        <v>19.5</v>
+        <v>-1141.46</v>
       </c>
       <c r="S2" t="n">
-        <v>-41.60000000000001</v>
+        <v>-1144.01</v>
       </c>
       <c r="T2" t="n">
-        <v>-88.40000000000001</v>
+        <v>-1289.76</v>
       </c>
       <c r="U2" t="n">
-        <v>-117</v>
+        <v>-1379.2</v>
       </c>
       <c r="V2" t="n">
-        <v>-97.5</v>
+        <v>-1346.75</v>
       </c>
       <c r="W2" t="n">
-        <v>-78</v>
+        <v>-1297.99</v>
       </c>
       <c r="X2" t="n">
-        <v>-52</v>
+        <v>-1140.13</v>
       </c>
       <c r="Y2" t="n">
-        <v>-39</v>
+        <v>-1064.46</v>
       </c>
     </row>
     <row r="3">
@@ -1716,76 +1224,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-32.5</v>
+        <v>-879.3</v>
       </c>
       <c r="C3" t="n">
-        <v>-19.5</v>
+        <v>-811</v>
       </c>
       <c r="D3" t="n">
-        <v>-13</v>
+        <v>-743.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-620.6500000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-335.1400000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>-19.5</v>
+        <v>27.27000000000005</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>193.87</v>
       </c>
       <c r="I3" t="n">
-        <v>83.2</v>
+        <v>379.3449999999998</v>
       </c>
       <c r="J3" t="n">
-        <v>124.8</v>
+        <v>534.7799999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>166.4</v>
+        <v>483.6749999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>187.2</v>
+        <v>452.2999999999998</v>
       </c>
       <c r="M3" t="n">
-        <v>149.5</v>
+        <v>367.57</v>
       </c>
       <c r="N3" t="n">
-        <v>101.4</v>
+        <v>149.0700000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>145.6</v>
+        <v>-161.885</v>
       </c>
       <c r="P3" t="n">
-        <v>32.49999999999999</v>
+        <v>-461.76</v>
       </c>
       <c r="Q3" t="n">
-        <v>39</v>
+        <v>-820.285</v>
       </c>
       <c r="R3" t="n">
-        <v>62.4</v>
+        <v>-932.5600000000001</v>
       </c>
       <c r="S3" t="n">
-        <v>-62.40000000000001</v>
+        <v>-950.8</v>
       </c>
       <c r="T3" t="n">
-        <v>-130</v>
+        <v>-1103.5</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>-1198.5</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>-1173</v>
       </c>
       <c r="W3" t="n">
-        <v>-78</v>
+        <v>-1129.8</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>-977.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>-39</v>
+        <v>-906</v>
       </c>
     </row>
     <row r="4">
@@ -1793,76 +1301,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-32.5</v>
+        <v>-1150.35</v>
       </c>
       <c r="C4" t="n">
-        <v>-19.5</v>
+        <v>-1086.22</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-1021.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-966.9799999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-861.235</v>
       </c>
       <c r="G4" t="n">
-        <v>-19.5</v>
+        <v>-428.7049999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-144.71</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.98000000000013</v>
       </c>
       <c r="J4" t="n">
-        <v>20.8</v>
+        <v>278.04</v>
       </c>
       <c r="K4" t="n">
-        <v>83.2</v>
+        <v>230.71</v>
       </c>
       <c r="L4" t="n">
-        <v>145.6</v>
+        <v>187.8149999999999</v>
       </c>
       <c r="M4" t="n">
-        <v>107.9</v>
+        <v>79.84499999999994</v>
       </c>
       <c r="N4" t="n">
-        <v>166.4</v>
+        <v>-180.765</v>
       </c>
       <c r="O4" t="n">
-        <v>145.6</v>
+        <v>-573.1600000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>83.2</v>
+        <v>-991.62</v>
       </c>
       <c r="Q4" t="n">
-        <v>41.6</v>
+        <v>-1263.34</v>
       </c>
       <c r="R4" t="n">
-        <v>20.8</v>
+        <v>-1258.22</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>-1269.11</v>
       </c>
       <c r="T4" t="n">
-        <v>-130</v>
+        <v>-1424.59</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>-1520.98</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>-1498.26</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>-1456.45</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>-1306.93</v>
       </c>
       <c r="Y4" t="n">
-        <v>-39</v>
+        <v>-1236.82</v>
       </c>
     </row>
   </sheetData>
@@ -1978,46 +1486,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>681.5910000000147</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1912.523999999665</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>3153.630000000059</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>3926.778000000118</v>
       </c>
       <c r="K2" t="n">
-        <v>7</v>
+        <v>4038.681000000117</v>
       </c>
       <c r="L2" t="n">
-        <v>8</v>
+        <v>3560.55</v>
       </c>
       <c r="M2" t="n">
-        <v>9</v>
+        <v>2675.498999999847</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>1607.334</v>
       </c>
       <c r="O2" t="n">
-        <v>9</v>
+        <v>640.8990000000147</v>
       </c>
       <c r="P2" t="n">
-        <v>8</v>
+        <v>20.34600000000046</v>
       </c>
       <c r="Q2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2049,49 +1557,49 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>305.1900000000073</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3479.166000000059</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>646.8</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>672</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>6032.754984892803</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>798</v>
       </c>
       <c r="M3" t="n">
-        <v>10</v>
+        <v>756</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>756</v>
       </c>
       <c r="O3" t="n">
-        <v>7</v>
+        <v>4059.026999998721</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>672.0000000034892</v>
       </c>
       <c r="Q3" t="n">
-        <v>5</v>
+        <v>600.2070000000147</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>40.69200000000092</v>
       </c>
       <c r="S3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -2129,43 +1637,43 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>457.7850000000074</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>677.88</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>805.5599999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>824.04</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>6173.920000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>6301.6</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>2216.871266197682</v>
       </c>
       <c r="M4" t="n">
-        <v>8</v>
+        <v>6262.120000000001</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>940.8</v>
       </c>
       <c r="O4" t="n">
-        <v>7</v>
+        <v>925.6800000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>1018.26</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2287,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1.200716742643654e-09</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2305,31 +1813,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>54.7</v>
+        <v>1136.743999997356</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2586.960000005429</v>
       </c>
       <c r="J2" t="n">
-        <v>33.3</v>
+        <v>3536.198000001155</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3570.376000000904</v>
       </c>
       <c r="L2" t="n">
-        <v>122.4000000002794</v>
+        <v>3000.680000001479</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1975.874000000912</v>
       </c>
       <c r="N2" t="n">
-        <v>147.0858585855793</v>
+        <v>686.6240000014533</v>
       </c>
       <c r="O2" t="n">
-        <v>118.2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>102.9</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -2379,22 +1887,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2975.166000000059</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>130.8000000002794</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>174.4000000002561</v>
+        <v>5234.754984892802</v>
       </c>
       <c r="L3" t="n">
-        <v>80.65715743114436</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -2403,16 +1911,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7</v>
+        <v>3319.826999998721</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3.489152401347052e-09</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2.999999999999886</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2444,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>7.642665877938271e-08</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2465,31 +1973,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>5323</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>5323</v>
       </c>
       <c r="L4" t="n">
-        <v>49.98312417081809</v>
+        <v>1236.591266197682</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>5323</v>
       </c>
       <c r="N4" t="n">
-        <v>174.4000000002561</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>2.000000000000057</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2611,19 +2119,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>32.5</v>
+        <v>1091.5</v>
       </c>
       <c r="C2" t="n">
-        <v>19.50000000004657</v>
+        <v>1016.249999996527</v>
       </c>
       <c r="D2" t="n">
-        <v>12.99999999995343</v>
+        <v>1061.809999999996</v>
       </c>
       <c r="E2" t="n">
-        <v>12.99999999995343</v>
+        <v>876.159999999915</v>
       </c>
       <c r="F2" t="n">
-        <v>12.99999999995343</v>
+        <v>737.6299999999923</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2650,37 +2158,37 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>237.545999996912</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1020.534000000826</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>920.096225613589</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1021.45</v>
       </c>
       <c r="S2" t="n">
-        <v>38.6</v>
+        <v>1024</v>
       </c>
       <c r="T2" t="n">
-        <v>86.40000000000001</v>
+        <v>1169.75</v>
       </c>
       <c r="U2" t="n">
-        <v>117.0000000000466</v>
+        <v>1259.189999999916</v>
       </c>
       <c r="V2" t="n">
-        <v>97.5</v>
+        <v>1346.75</v>
       </c>
       <c r="W2" t="n">
-        <v>77.99999999995343</v>
+        <v>1177.980000000005</v>
       </c>
       <c r="X2" t="n">
-        <v>19.57200000011641</v>
+        <v>1140.13</v>
       </c>
       <c r="Y2" t="n">
-        <v>38.99999999997672</v>
+        <v>1064.459999999942</v>
       </c>
     </row>
     <row r="3">
@@ -2688,22 +2196,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32.5</v>
+        <v>879.3</v>
       </c>
       <c r="C3" t="n">
-        <v>19.50000000004657</v>
+        <v>811</v>
       </c>
       <c r="D3" t="n">
-        <v>12.99999999995343</v>
+        <v>743.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>315.4599999967057</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>19.50000000004657</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2733,31 +2241,31 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>220.0779999986116</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>891.8679999999991</v>
       </c>
       <c r="S3" t="n">
-        <v>60.39999999881256</v>
+        <v>950.8</v>
       </c>
       <c r="T3" t="n">
-        <v>130</v>
+        <v>1103.5</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1198.5</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1173</v>
       </c>
       <c r="W3" t="n">
-        <v>77.99999999995343</v>
+        <v>1129.8</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>977.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>38.99999999997672</v>
+        <v>906</v>
       </c>
     </row>
     <row r="4">
@@ -2765,22 +2273,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32.5</v>
+        <v>1150.35</v>
       </c>
       <c r="C4" t="n">
-        <v>19.50000000004657</v>
+        <v>1086.220000076427</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1021.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>966.9799999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>403.45</v>
       </c>
       <c r="G4" t="n">
-        <v>19.50000000004657</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2810,31 +2318,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1263.34</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1258.219999999995</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1269.11</v>
       </c>
       <c r="T4" t="n">
-        <v>130</v>
+        <v>1424.59</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1520.979999999861</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1498.259999999998</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1456.45</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1306.929999999932</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.99999999997672</v>
+        <v>1236.82</v>
       </c>
     </row>
   </sheetData>
@@ -2935,76 +2443,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>202.290909090815</v>
+        <v>7987.541414138155</v>
       </c>
       <c r="C2" t="n">
-        <v>182.5939393937983</v>
+        <v>6961.026262626512</v>
       </c>
       <c r="D2" t="n">
-        <v>169.4626262625322</v>
+        <v>5888.490909091162</v>
       </c>
       <c r="E2" t="n">
-        <v>156.3313131312661</v>
+        <v>5003.480808080809</v>
       </c>
       <c r="F2" t="n">
-        <v>143.2</v>
+        <v>4258.4</v>
       </c>
       <c r="G2" t="n">
-        <v>143.2</v>
+        <v>4258.4</v>
       </c>
       <c r="H2" t="n">
-        <v>197.353</v>
+        <v>5383.776559997779</v>
       </c>
       <c r="I2" t="n">
-        <v>197.353</v>
+        <v>7944.866960003154</v>
       </c>
       <c r="J2" t="n">
-        <v>230.32</v>
+        <v>11445.7029800043</v>
       </c>
       <c r="K2" t="n">
-        <v>230.32</v>
+        <v>14980.37522000519</v>
       </c>
       <c r="L2" t="n">
-        <v>351.4960000002766</v>
+        <v>17951.04842000666</v>
       </c>
       <c r="M2" t="n">
-        <v>351.4960000002766</v>
+        <v>19907.16368000797</v>
       </c>
       <c r="N2" t="n">
-        <v>497.111</v>
+        <v>20586.92144000941</v>
       </c>
       <c r="O2" t="n">
-        <v>614.129</v>
+        <v>20346.97598546707</v>
       </c>
       <c r="P2" t="n">
-        <v>716</v>
+        <v>19316.13356122308</v>
       </c>
       <c r="Q2" t="n">
-        <v>716</v>
+        <v>18386.74343434067</v>
       </c>
       <c r="R2" t="n">
-        <v>716</v>
+        <v>17354.97575757299</v>
       </c>
       <c r="S2" t="n">
-        <v>677.010101010101</v>
+        <v>16320.63232322955</v>
       </c>
       <c r="T2" t="n">
-        <v>589.7373737373738</v>
+        <v>15139.06666666297</v>
       </c>
       <c r="U2" t="n">
-        <v>471.5555555555085</v>
+        <v>13867.15757575396</v>
       </c>
       <c r="V2" t="n">
-        <v>373.07070707066</v>
+        <v>12506.80404040043</v>
       </c>
       <c r="W2" t="n">
-        <v>294.2828282828283</v>
+        <v>11316.92525252164</v>
       </c>
       <c r="X2" t="n">
-        <v>274.5131313130137</v>
+        <v>10165.27878787518</v>
       </c>
       <c r="Y2" t="n">
-        <v>235.1191919190979</v>
+        <v>9090.066666663053</v>
       </c>
     </row>
     <row r="3">
@@ -3012,76 +2520,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>195.7252525252996</v>
+        <v>6147.248484845076</v>
       </c>
       <c r="C3" t="n">
-        <v>176.0282828282828</v>
+        <v>5328.056565653156</v>
       </c>
       <c r="D3" t="n">
-        <v>162.8969696970167</v>
+        <v>4577.046464643056</v>
       </c>
       <c r="E3" t="n">
-        <v>162.8969696970167</v>
+        <v>4258.4</v>
       </c>
       <c r="F3" t="n">
-        <v>162.8969696970167</v>
+        <v>4258.4</v>
       </c>
       <c r="G3" t="n">
-        <v>143.2</v>
+        <v>7203.814339999138</v>
       </c>
       <c r="H3" t="n">
-        <v>143.2</v>
+        <v>7203.814339998924</v>
       </c>
       <c r="I3" t="n">
-        <v>147.16</v>
+        <v>7203.814339998596</v>
       </c>
       <c r="J3" t="n">
-        <v>276.6520000002766</v>
+        <v>7203.814339998596</v>
       </c>
       <c r="K3" t="n">
-        <v>449.3080000005302</v>
+        <v>12386.22177504247</v>
       </c>
       <c r="L3" t="n">
-        <v>529.1585858573631</v>
+        <v>12386.22177504247</v>
       </c>
       <c r="M3" t="n">
-        <v>529.1585858573631</v>
+        <v>12386.22177504247</v>
       </c>
       <c r="N3" t="n">
-        <v>529.1585858573631</v>
+        <v>12386.22177504247</v>
       </c>
       <c r="O3" t="n">
-        <v>536.088585857363</v>
+        <v>15672.8505050412</v>
       </c>
       <c r="P3" t="n">
-        <v>536.088585857363</v>
+        <v>15672.85050504466</v>
       </c>
       <c r="Q3" t="n">
-        <v>536.088585857363</v>
+        <v>15450.54949494505</v>
       </c>
       <c r="R3" t="n">
-        <v>539.0585858573629</v>
+        <v>14549.67272726828</v>
       </c>
       <c r="S3" t="n">
-        <v>478.0484848484613</v>
+        <v>13589.26868686425</v>
       </c>
       <c r="T3" t="n">
-        <v>346.73535353533</v>
+        <v>12474.62222221778</v>
       </c>
       <c r="U3" t="n">
-        <v>346.73535353533</v>
+        <v>11264.01616161172</v>
       </c>
       <c r="V3" t="n">
-        <v>346.73535353533</v>
+        <v>10079.16767676324</v>
       </c>
       <c r="W3" t="n">
-        <v>267.9474747474983</v>
+        <v>8937.955555551116</v>
       </c>
       <c r="X3" t="n">
-        <v>267.9474747474983</v>
+        <v>7950.581818177392</v>
       </c>
       <c r="Y3" t="n">
-        <v>228.5535353535824</v>
+        <v>7035.430303026484</v>
       </c>
     </row>
     <row r="4">
@@ -3089,76 +2597,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>182.5939393940335</v>
+        <v>7771.682828282829</v>
       </c>
       <c r="C4" t="n">
-        <v>162.8969696970167</v>
+        <v>6674.490909089373</v>
       </c>
       <c r="D4" t="n">
-        <v>162.8969696970167</v>
+        <v>5642.672727271191</v>
       </c>
       <c r="E4" t="n">
-        <v>162.8969696970167</v>
+        <v>4665.925252523716</v>
       </c>
       <c r="F4" t="n">
-        <v>162.8969696970167</v>
+        <v>4258.4</v>
       </c>
       <c r="G4" t="n">
-        <v>143.2</v>
+        <v>4258.4</v>
       </c>
       <c r="H4" t="n">
-        <v>143.2</v>
+        <v>4258.4</v>
       </c>
       <c r="I4" t="n">
-        <v>143.2</v>
+        <v>4258.4</v>
       </c>
       <c r="J4" t="n">
-        <v>145.18</v>
+        <v>9528.169999999787</v>
       </c>
       <c r="K4" t="n">
-        <v>149.14</v>
+        <v>14797.93999999979</v>
       </c>
       <c r="L4" t="n">
-        <v>198.6232929291099</v>
+        <v>16022.16535353549</v>
       </c>
       <c r="M4" t="n">
-        <v>198.6232929291099</v>
+        <v>21291.93535353549</v>
       </c>
       <c r="N4" t="n">
-        <v>371.2792929293635</v>
+        <v>21291.93535353549</v>
       </c>
       <c r="O4" t="n">
-        <v>378.2092929293635</v>
+        <v>21291.93535353549</v>
       </c>
       <c r="P4" t="n">
-        <v>382.1692929293635</v>
+        <v>21291.93535353549</v>
       </c>
       <c r="Q4" t="n">
-        <v>384.1492929293635</v>
+        <v>20015.83434343448</v>
       </c>
       <c r="R4" t="n">
-        <v>386.1292929293635</v>
+        <v>18744.9050505052</v>
       </c>
       <c r="S4" t="n">
-        <v>386.1292929293635</v>
+        <v>17462.9757575759</v>
       </c>
       <c r="T4" t="n">
-        <v>254.8161616162322</v>
+        <v>16023.99595959611</v>
       </c>
       <c r="U4" t="n">
-        <v>254.8161616162322</v>
+        <v>14487.65252525281</v>
       </c>
       <c r="V4" t="n">
-        <v>254.8161616162322</v>
+        <v>12974.25858585888</v>
       </c>
       <c r="W4" t="n">
-        <v>254.8161616162322</v>
+        <v>11503.09696969726</v>
       </c>
       <c r="X4" t="n">
-        <v>254.8161616162322</v>
+        <v>10182.96565656566</v>
       </c>
       <c r="Y4" t="n">
-        <v>215.4222222223163</v>
+        <v>8933.652525252528</v>
       </c>
     </row>
     <row r="5">
@@ -6832,40 +6340,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>50.99999999771826</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>26.2</v>
+        <v>146.3700000011595</v>
       </c>
       <c r="J2" t="n">
-        <v>51</v>
+        <v>311.1</v>
       </c>
       <c r="K2" t="n">
-        <v>19</v>
+        <v>349.095000000787</v>
       </c>
       <c r="L2" t="n">
-        <v>108.8000000002794</v>
+        <v>268.7700000011828</v>
       </c>
       <c r="M2" t="n">
-        <v>14.4</v>
+        <v>116.5349999992172</v>
       </c>
       <c r="N2" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>112.2000000001863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>98.60000000020955</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>28.8</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -6918,28 +6426,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>71.65715743114436</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>23.6</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -7001,13 +6509,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>42.98312417081809</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -7019,7 +6527,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -7156,43 +6664,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.360000001499429</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>49.0399999976903</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>100.0800000020536</v>
       </c>
       <c r="J2" t="n">
-        <v>4.4999999997206</v>
+        <v>130.7600000002421</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="L2" t="n">
-        <v>7.200000000186265</v>
+        <v>118.8800000002375</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>84.32000000204425</v>
       </c>
       <c r="N2" t="n">
-        <v>3.085858585579274</v>
+        <v>42.56000000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>7.800000000279397</v>
+        <v>4.800000003073364</v>
       </c>
       <c r="P2" t="n">
-        <v>6.899999999790452</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.399999996297993</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -7227,7 +6735,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2.000000003376044</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -7242,10 +6750,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -7263,13 +6771,13 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>11.6000000013737</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4000000011874363</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -7319,7 +6827,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -7331,7 +6839,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -7378,7 +6886,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7387,77 +6895,30 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="n">
-        <v>23</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Total Revenues</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Total Capital Costs</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Variable Costs</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Fixed Costs</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total Profits</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -7465,230 +6926,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>3375173.553962106</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>426686.7228096584</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187210</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>9.20000000228174</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>10.8000000002794</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>19.19999999981374</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24</v>
-      </c>
-      <c r="O2" t="n">
-        <v>20.39999999953432</v>
-      </c>
-      <c r="P2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>15.60000000370201</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>16.8000000002794</v>
-      </c>
-      <c r="K3" t="n">
-        <v>22.40000000025611</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="N4" t="n">
-        <v>22.40000000025611</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
+        <v>2239490.975693894</v>
       </c>
     </row>
   </sheetData>

--- a/model/Output Files/Year 2.xlsx
+++ b/model/Output Files/Year 2.xlsx
@@ -15,10 +15,11 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 1" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 2" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 3" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -523,28 +524,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>120.0100000003749</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>120.0100000035894</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="E2" t="n">
-        <v>120.0099999999931</v>
+        <v>160.8283227952102</v>
       </c>
       <c r="F2" t="n">
-        <v>240</v>
+        <v>120.0099999996455</v>
       </c>
       <c r="G2" t="n">
-        <v>185.3039999976151</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.156980372092221e-09</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -565,31 +566,31 @@
         <v>240</v>
       </c>
       <c r="P2" t="n">
-        <v>120.0099999984341</v>
+        <v>120.0099999996164</v>
       </c>
       <c r="Q2" t="n">
-        <v>236.2137743861782</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>120.0099999999948</v>
       </c>
       <c r="S2" t="n">
-        <v>120.0099999999948</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>120.0099999990859</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>120.0099999999948</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="W2" t="n">
-        <v>120.0099999999947</v>
+        <v>240</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -725,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>120.4749999998706</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -755,6 +756,72 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Total Revenues</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Total Capital Costs</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Variable Costs</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Fixed Costs</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total Profits</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3384782.326458098</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>426025.8031162297</v>
+      </c>
+      <c r="E2" t="n">
+        <v>187615</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2247497.381171876</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -811,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10173</v>
+        <v>10206</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -827,7 +894,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>5323</v>
+        <v>5305</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
@@ -838,13 +905,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -969,16 +1036,16 @@
         <v>510</v>
       </c>
       <c r="G3" t="n">
-        <v>484</v>
+        <v>510</v>
       </c>
       <c r="H3" t="n">
-        <v>487</v>
+        <v>510</v>
       </c>
       <c r="I3" t="n">
         <v>510</v>
       </c>
       <c r="J3" t="n">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K3" t="n">
         <v>510</v>
@@ -1019,16 +1086,16 @@
         <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="H4" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4" t="n">
         <v>40</v>
       </c>
       <c r="J4" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K4" t="n">
         <v>40</v>
@@ -1047,6 +1114,56 @@
       </c>
       <c r="P4" t="n">
         <v>40</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1054,7 +1171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1156,43 +1273,43 @@
         <v>-1061.81</v>
       </c>
       <c r="E2" t="n">
-        <v>-996.17</v>
+        <v>-1031.17</v>
       </c>
       <c r="F2" t="n">
         <v>-977.63</v>
       </c>
       <c r="G2" t="n">
-        <v>-866.895</v>
+        <v>-858.895</v>
       </c>
       <c r="H2" t="n">
-        <v>-775.78</v>
+        <v>-752.78</v>
       </c>
       <c r="I2" t="n">
-        <v>-566.6700000000001</v>
+        <v>-528.6700000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>-390.5800000000002</v>
+        <v>-343.5800000000002</v>
       </c>
       <c r="K2" t="n">
-        <v>-468.3050000000001</v>
+        <v>-420.3050000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>-559.8699999999999</v>
+        <v>-516.8699999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>-699.625</v>
+        <v>-667.625</v>
       </c>
       <c r="N2" t="n">
-        <v>-920.71</v>
+        <v>-901.71</v>
       </c>
       <c r="O2" t="n">
-        <v>-1118.445</v>
+        <v>-1111.445</v>
       </c>
       <c r="P2" t="n">
         <v>-1160.89</v>
       </c>
       <c r="Q2" t="n">
-        <v>-1156.31</v>
+        <v>-1191.31</v>
       </c>
       <c r="R2" t="n">
         <v>-1141.46</v>
@@ -1233,43 +1350,43 @@
         <v>-743.5</v>
       </c>
       <c r="E3" t="n">
-        <v>-620.6500000000001</v>
+        <v>-651.6500000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>-335.1400000000001</v>
+        <v>-316.1400000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>27.27000000000005</v>
+        <v>69.27000000000005</v>
       </c>
       <c r="H3" t="n">
-        <v>193.87</v>
+        <v>254.87</v>
       </c>
       <c r="I3" t="n">
-        <v>379.3449999999998</v>
+        <v>454.3449999999998</v>
       </c>
       <c r="J3" t="n">
-        <v>534.7799999999999</v>
+        <v>618.7799999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>483.6749999999999</v>
+        <v>570.675</v>
       </c>
       <c r="L3" t="n">
-        <v>452.2999999999998</v>
+        <v>538.2999999999998</v>
       </c>
       <c r="M3" t="n">
-        <v>367.57</v>
+        <v>445.57</v>
       </c>
       <c r="N3" t="n">
-        <v>149.0700000000001</v>
+        <v>215.0700000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>-161.885</v>
+        <v>-112.885</v>
       </c>
       <c r="P3" t="n">
-        <v>-461.76</v>
+        <v>-434.76</v>
       </c>
       <c r="Q3" t="n">
-        <v>-820.285</v>
+        <v>-847.285</v>
       </c>
       <c r="R3" t="n">
         <v>-932.5600000000001</v>
@@ -1310,43 +1427,43 @@
         <v>-1021.5</v>
       </c>
       <c r="E4" t="n">
-        <v>-966.9799999999999</v>
+        <v>-1001.98</v>
       </c>
       <c r="F4" t="n">
-        <v>-861.235</v>
+        <v>-856.235</v>
       </c>
       <c r="G4" t="n">
-        <v>-428.7049999999999</v>
+        <v>-396.7049999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>-144.71</v>
+        <v>-85.70999999999998</v>
       </c>
       <c r="I4" t="n">
-        <v>96.98000000000013</v>
+        <v>172.9800000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>278.04</v>
+        <v>364.04</v>
       </c>
       <c r="K4" t="n">
-        <v>230.71</v>
+        <v>320.71</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8149999999999</v>
+        <v>275.8149999999999</v>
       </c>
       <c r="M4" t="n">
-        <v>79.84499999999994</v>
+        <v>158.8449999999999</v>
       </c>
       <c r="N4" t="n">
-        <v>-180.765</v>
+        <v>-115.765</v>
       </c>
       <c r="O4" t="n">
-        <v>-573.1600000000001</v>
+        <v>-530.1600000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>-991.62</v>
+        <v>-976.62</v>
       </c>
       <c r="Q4" t="n">
-        <v>-1263.34</v>
+        <v>-1298.34</v>
       </c>
       <c r="R4" t="n">
         <v>-1258.22</v>
@@ -1486,34 +1603,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>681.5910000000147</v>
+        <v>683.8020000000147</v>
       </c>
       <c r="H2" t="n">
-        <v>1912.523999999665</v>
+        <v>1918.72800000003</v>
       </c>
       <c r="I2" t="n">
-        <v>3153.630000000059</v>
+        <v>3163.860000000059</v>
       </c>
       <c r="J2" t="n">
-        <v>3926.778000000118</v>
+        <v>3939.516000000059</v>
       </c>
       <c r="K2" t="n">
-        <v>4038.681000000117</v>
+        <v>4051.782000000059</v>
       </c>
       <c r="L2" t="n">
-        <v>3560.55</v>
+        <v>3572.1</v>
       </c>
       <c r="M2" t="n">
-        <v>2675.498999999847</v>
+        <v>2684.178000000059</v>
       </c>
       <c r="N2" t="n">
-        <v>1607.334</v>
+        <v>1612.54800000003</v>
       </c>
       <c r="O2" t="n">
-        <v>640.8990000000147</v>
+        <v>642.9780000000146</v>
       </c>
       <c r="P2" t="n">
-        <v>20.34600000000046</v>
+        <v>20.41200000019307</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -1557,25 +1674,25 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>305.1900000000073</v>
+        <v>306.1800000000073</v>
       </c>
       <c r="F3" t="n">
-        <v>462</v>
+        <v>1592.13600000003</v>
       </c>
       <c r="G3" t="n">
-        <v>3479.166000000059</v>
+        <v>3490.452000000059</v>
       </c>
       <c r="H3" t="n">
-        <v>630</v>
+        <v>1180.06230669995</v>
       </c>
       <c r="I3" t="n">
-        <v>646.8</v>
+        <v>5951.8</v>
       </c>
       <c r="J3" t="n">
         <v>672</v>
       </c>
       <c r="K3" t="n">
-        <v>6032.754984892803</v>
+        <v>798</v>
       </c>
       <c r="L3" t="n">
         <v>798</v>
@@ -1587,16 +1704,16 @@
         <v>756</v>
       </c>
       <c r="O3" t="n">
-        <v>4059.026999998721</v>
+        <v>739.2</v>
       </c>
       <c r="P3" t="n">
-        <v>672.0000000034892</v>
+        <v>2286.144000000059</v>
       </c>
       <c r="Q3" t="n">
-        <v>600.2070000000147</v>
+        <v>602.1540000000147</v>
       </c>
       <c r="R3" t="n">
-        <v>40.69200000000092</v>
+        <v>40.82400000000091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1637,37 +1754,37 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>457.7850000000074</v>
+        <v>459.2700000000074</v>
       </c>
       <c r="G4" t="n">
-        <v>677.88</v>
+        <v>2704.59</v>
       </c>
       <c r="H4" t="n">
         <v>805.5599999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>824.04</v>
+        <v>3494.386747474753</v>
       </c>
       <c r="J4" t="n">
-        <v>6173.920000000001</v>
+        <v>6155.920000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>6301.6</v>
+        <v>978.6</v>
       </c>
       <c r="L4" t="n">
-        <v>2216.871266197682</v>
+        <v>980.2800000000339</v>
       </c>
       <c r="M4" t="n">
-        <v>6262.120000000001</v>
+        <v>939.120000000103</v>
       </c>
       <c r="N4" t="n">
-        <v>940.8</v>
+        <v>5419.386000000118</v>
       </c>
       <c r="O4" t="n">
-        <v>925.6800000000001</v>
+        <v>3592.512</v>
       </c>
       <c r="P4" t="n">
-        <v>1018.26</v>
+        <v>1018.260000000796</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -1795,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.200716742643654e-09</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1804,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-8.236332860178663e-08</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1813,25 +1930,25 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1136.743999997356</v>
+        <v>1165.948000000512</v>
       </c>
       <c r="I2" t="n">
-        <v>2586.960000005429</v>
+        <v>2635.190000000059</v>
       </c>
       <c r="J2" t="n">
-        <v>3536.198000001155</v>
+        <v>3595.93600000086</v>
       </c>
       <c r="K2" t="n">
-        <v>3570.376000000904</v>
+        <v>3631.477000000849</v>
       </c>
       <c r="L2" t="n">
-        <v>3000.680000001479</v>
+        <v>3055.230000001433</v>
       </c>
       <c r="M2" t="n">
-        <v>1975.874000000912</v>
+        <v>2016.552999998617</v>
       </c>
       <c r="N2" t="n">
-        <v>686.6240000014533</v>
+        <v>710.8380000016715</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1878,28 +1995,28 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-2.974411472678185e-08</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1130.136</v>
       </c>
       <c r="G3" t="n">
-        <v>2975.166000000059</v>
+        <v>2986.452000000362</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>550.0623066999142</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5305</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>5234.754984892802</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -1911,10 +2028,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3319.826999998721</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.489152401347052e-09</v>
+        <v>1614.144</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -1952,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>7.642665877938271e-08</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1964,31 +2081,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2026.71</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2670.346747474752</v>
       </c>
       <c r="J4" t="n">
-        <v>5323</v>
+        <v>5305</v>
       </c>
       <c r="K4" t="n">
-        <v>5323</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1236.591266197682</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>5323</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4478.586000000118</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>2666.831999999999</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -2119,22 +2236,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1091.5</v>
+        <v>1211.51</v>
       </c>
       <c r="C2" t="n">
-        <v>1016.249999996527</v>
+        <v>1136.26</v>
       </c>
       <c r="D2" t="n">
-        <v>1061.809999999996</v>
+        <v>821.8100000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>876.159999999915</v>
+        <v>870.3416771257265</v>
       </c>
       <c r="F2" t="n">
-        <v>737.6299999999923</v>
+        <v>857.620000000421</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>175.0929999980644</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -2158,34 +2275,34 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>237.545999996912</v>
+        <v>228.4669999969268</v>
       </c>
       <c r="P2" t="n">
-        <v>1020.534000000826</v>
+        <v>1020.468000000191</v>
       </c>
       <c r="Q2" t="n">
-        <v>920.096225613589</v>
+        <v>1191.310000000099</v>
       </c>
       <c r="R2" t="n">
         <v>1021.45</v>
       </c>
       <c r="S2" t="n">
-        <v>1024</v>
+        <v>1144.010000000034</v>
       </c>
       <c r="T2" t="n">
-        <v>1169.75</v>
+        <v>1289.76</v>
       </c>
       <c r="U2" t="n">
-        <v>1259.189999999916</v>
+        <v>1379.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1346.75</v>
+        <v>1106.75</v>
       </c>
       <c r="W2" t="n">
-        <v>1177.980000000005</v>
+        <v>1057.990000000089</v>
       </c>
       <c r="X2" t="n">
-        <v>1140.13</v>
+        <v>900.1299999999983</v>
       </c>
       <c r="Y2" t="n">
         <v>1064.459999999942</v>
@@ -2202,10 +2319,10 @@
         <v>811</v>
       </c>
       <c r="D3" t="n">
-        <v>743.5</v>
+        <v>743.4999999735559</v>
       </c>
       <c r="E3" t="n">
-        <v>315.4599999967057</v>
+        <v>345.4699999966207</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2241,10 +2358,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>220.0779999986116</v>
+        <v>245.1310000000021</v>
       </c>
       <c r="R3" t="n">
-        <v>891.8679999999991</v>
+        <v>891.7359999999992</v>
       </c>
       <c r="S3" t="n">
         <v>950.8</v>
@@ -2276,16 +2393,16 @@
         <v>1150.35</v>
       </c>
       <c r="C4" t="n">
-        <v>1086.220000076427</v>
+        <v>1086.22</v>
       </c>
       <c r="D4" t="n">
         <v>1021.5</v>
       </c>
       <c r="E4" t="n">
-        <v>966.9799999999999</v>
+        <v>1001.98</v>
       </c>
       <c r="F4" t="n">
-        <v>403.45</v>
+        <v>396.9650000000187</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -2318,31 +2435,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1263.34</v>
+        <v>1298.34000000008</v>
       </c>
       <c r="R4" t="n">
-        <v>1258.219999999995</v>
+        <v>1137.744999999998</v>
       </c>
       <c r="S4" t="n">
-        <v>1269.11</v>
+        <v>1269.110000000072</v>
       </c>
       <c r="T4" t="n">
         <v>1424.59</v>
       </c>
       <c r="U4" t="n">
-        <v>1520.979999999861</v>
+        <v>1520.980000000233</v>
       </c>
       <c r="V4" t="n">
-        <v>1498.259999999998</v>
+        <v>1498.26</v>
       </c>
       <c r="W4" t="n">
         <v>1456.45</v>
       </c>
       <c r="X4" t="n">
-        <v>1306.929999999932</v>
+        <v>1306.929999999942</v>
       </c>
       <c r="Y4" t="n">
-        <v>1236.82</v>
+        <v>1236.820000000058</v>
       </c>
     </row>
   </sheetData>
@@ -2443,76 +2560,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7987.541414138155</v>
+        <v>8144.125936572085</v>
       </c>
       <c r="C2" t="n">
-        <v>6961.026262626512</v>
+        <v>6996.38856283471</v>
       </c>
       <c r="D2" t="n">
-        <v>5888.490909091162</v>
+        <v>6166.277451722989</v>
       </c>
       <c r="E2" t="n">
-        <v>5003.480808080809</v>
+        <v>5287.144444447079</v>
       </c>
       <c r="F2" t="n">
-        <v>4258.4</v>
+        <v>4420.861616162161</v>
       </c>
       <c r="G2" t="n">
-        <v>4258.4</v>
+        <v>4244</v>
       </c>
       <c r="H2" t="n">
-        <v>5383.776559997779</v>
+        <v>5398.288520000387</v>
       </c>
       <c r="I2" t="n">
-        <v>7944.866960003154</v>
+        <v>8007.126620000445</v>
       </c>
       <c r="J2" t="n">
-        <v>11445.7029800043</v>
+        <v>11567.1032600013</v>
       </c>
       <c r="K2" t="n">
-        <v>14980.37522000519</v>
+        <v>15162.26549000214</v>
       </c>
       <c r="L2" t="n">
-        <v>17951.04842000666</v>
+        <v>18186.94319000324</v>
       </c>
       <c r="M2" t="n">
-        <v>19907.16368000797</v>
+        <v>20183.33066000187</v>
       </c>
       <c r="N2" t="n">
-        <v>20586.92144000941</v>
+        <v>20887.06028000352</v>
       </c>
       <c r="O2" t="n">
-        <v>20346.97598546707</v>
+        <v>20656.28553253188</v>
       </c>
       <c r="P2" t="n">
-        <v>19316.13356122308</v>
+        <v>19625.50977495593</v>
       </c>
       <c r="Q2" t="n">
-        <v>18386.74343434067</v>
+        <v>18422.16634061249</v>
       </c>
       <c r="R2" t="n">
-        <v>17354.97575757299</v>
+        <v>17390.39866384481</v>
       </c>
       <c r="S2" t="n">
-        <v>16320.63232322955</v>
+        <v>16234.83300727915</v>
       </c>
       <c r="T2" t="n">
-        <v>15139.06666666297</v>
+        <v>14932.04512849128</v>
       </c>
       <c r="U2" t="n">
-        <v>13867.15757575396</v>
+        <v>13538.91381536027</v>
       </c>
       <c r="V2" t="n">
-        <v>12506.80404040043</v>
+        <v>12420.98452243067</v>
       </c>
       <c r="W2" t="n">
-        <v>11316.92525252164</v>
+        <v>11352.3077547539</v>
       </c>
       <c r="X2" t="n">
-        <v>10165.27878787518</v>
+        <v>10443.08553253168</v>
       </c>
       <c r="Y2" t="n">
-        <v>9090.066666663053</v>
+        <v>9367.873411319561</v>
       </c>
     </row>
     <row r="3">
@@ -2520,76 +2637,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6147.248484845076</v>
+        <v>6163.961616158226</v>
       </c>
       <c r="C3" t="n">
-        <v>5328.056565653156</v>
+        <v>5344.769696966307</v>
       </c>
       <c r="D3" t="n">
-        <v>4577.046464643056</v>
+        <v>4593.759595956803</v>
       </c>
       <c r="E3" t="n">
-        <v>4258.4</v>
+        <v>4244.8</v>
       </c>
       <c r="F3" t="n">
-        <v>4258.4</v>
+        <v>5363.634640000022</v>
       </c>
       <c r="G3" t="n">
-        <v>7203.814339999138</v>
+        <v>8320.222120000381</v>
       </c>
       <c r="H3" t="n">
-        <v>7203.814339998924</v>
+        <v>8864.783803632972</v>
       </c>
       <c r="I3" t="n">
-        <v>7203.814339998596</v>
+        <v>14116.73380363297</v>
       </c>
       <c r="J3" t="n">
-        <v>7203.814339998596</v>
+        <v>14116.73380363297</v>
       </c>
       <c r="K3" t="n">
-        <v>12386.22177504247</v>
+        <v>14116.73380363297</v>
       </c>
       <c r="L3" t="n">
-        <v>12386.22177504247</v>
+        <v>14116.73380363297</v>
       </c>
       <c r="M3" t="n">
-        <v>12386.22177504247</v>
+        <v>14116.73380363297</v>
       </c>
       <c r="N3" t="n">
-        <v>12386.22177504247</v>
+        <v>14116.73380363297</v>
       </c>
       <c r="O3" t="n">
-        <v>15672.8505050412</v>
+        <v>14116.73380363266</v>
       </c>
       <c r="P3" t="n">
-        <v>15672.85050504466</v>
+        <v>15714.73636363297</v>
       </c>
       <c r="Q3" t="n">
-        <v>15450.54949494505</v>
+        <v>15467.1292929259</v>
       </c>
       <c r="R3" t="n">
-        <v>14549.67272726828</v>
+        <v>14566.38585858247</v>
       </c>
       <c r="S3" t="n">
-        <v>13589.26868686425</v>
+        <v>13605.98181817843</v>
       </c>
       <c r="T3" t="n">
-        <v>12474.62222221778</v>
+        <v>12491.33535353196</v>
       </c>
       <c r="U3" t="n">
-        <v>11264.01616161172</v>
+        <v>11280.7292929259</v>
       </c>
       <c r="V3" t="n">
-        <v>10079.16767676324</v>
+        <v>10095.88080807742</v>
       </c>
       <c r="W3" t="n">
-        <v>8937.955555551116</v>
+        <v>8954.668686865296</v>
       </c>
       <c r="X3" t="n">
-        <v>7950.581818177392</v>
+        <v>7967.294949491559</v>
       </c>
       <c r="Y3" t="n">
-        <v>7035.430303026484</v>
+        <v>7052.143434340044</v>
       </c>
     </row>
     <row r="4">
@@ -2597,76 +2714,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7771.682828282829</v>
+        <v>7786.08585858586</v>
       </c>
       <c r="C4" t="n">
-        <v>6674.490909089373</v>
+        <v>6688.893939393941</v>
       </c>
       <c r="D4" t="n">
-        <v>5642.672727271191</v>
+        <v>5657.075757575256</v>
       </c>
       <c r="E4" t="n">
-        <v>4665.925252523716</v>
+        <v>4644.974747474749</v>
       </c>
       <c r="F4" t="n">
-        <v>4258.4</v>
+        <v>4244</v>
       </c>
       <c r="G4" t="n">
-        <v>4258.4</v>
+        <v>6250.442900000001</v>
       </c>
       <c r="H4" t="n">
-        <v>4258.4</v>
+        <v>6250.442900000001</v>
       </c>
       <c r="I4" t="n">
-        <v>4258.4</v>
+        <v>8894.086180000006</v>
       </c>
       <c r="J4" t="n">
-        <v>9528.169999999787</v>
+        <v>14146.03618000001</v>
       </c>
       <c r="K4" t="n">
-        <v>14797.93999999979</v>
+        <v>14146.03618000001</v>
       </c>
       <c r="L4" t="n">
-        <v>16022.16535353549</v>
+        <v>14146.03618000001</v>
       </c>
       <c r="M4" t="n">
-        <v>21291.93535353549</v>
+        <v>14146.03618000001</v>
       </c>
       <c r="N4" t="n">
-        <v>21291.93535353549</v>
+        <v>18579.83632000013</v>
       </c>
       <c r="O4" t="n">
-        <v>21291.93535353549</v>
+        <v>21220</v>
       </c>
       <c r="P4" t="n">
-        <v>21291.93535353549</v>
+        <v>21220</v>
       </c>
       <c r="Q4" t="n">
-        <v>20015.83434343448</v>
+        <v>19908.54545454594</v>
       </c>
       <c r="R4" t="n">
-        <v>18744.9050505052</v>
+        <v>18759.30808080878</v>
       </c>
       <c r="S4" t="n">
-        <v>17462.9757575759</v>
+        <v>17477.37878787833</v>
       </c>
       <c r="T4" t="n">
-        <v>16023.99595959611</v>
+        <v>16038.39898989899</v>
       </c>
       <c r="U4" t="n">
-        <v>14487.65252525281</v>
+        <v>14502.05555555555</v>
       </c>
       <c r="V4" t="n">
-        <v>12974.25858585888</v>
+        <v>12988.66161616162</v>
       </c>
       <c r="W4" t="n">
-        <v>11503.09696969726</v>
+        <v>11517.5</v>
       </c>
       <c r="X4" t="n">
-        <v>10182.96565656566</v>
+        <v>10197.36868686869</v>
       </c>
       <c r="Y4" t="n">
-        <v>8933.652525252528</v>
+        <v>8948.055555555555</v>
       </c>
     </row>
     <row r="5">
@@ -6346,7 +6463,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>146.3700000011595</v>
+        <v>146.3699999979463</v>
       </c>
       <c r="J2" t="n">
         <v>311.1</v>
@@ -6358,7 +6475,7 @@
         <v>268.7700000011828</v>
       </c>
       <c r="M2" t="n">
-        <v>116.5349999992172</v>
+        <v>116.5350000022445</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -6667,7 +6784,7 @@
         <v>6.360000001499429</v>
       </c>
       <c r="H2" t="n">
-        <v>49.0399999976903</v>
+        <v>49.04000000050291</v>
       </c>
       <c r="I2" t="n">
         <v>100.0800000020536</v>
@@ -6685,7 +6802,7 @@
         <v>84.32000000204425</v>
       </c>
       <c r="N2" t="n">
-        <v>42.56000000000001</v>
+        <v>42.56000000145286</v>
       </c>
       <c r="O2" t="n">
         <v>4.800000003073364</v>
@@ -6771,7 +6888,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>11.6000000013737</v>
+        <v>11.6</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -6886,7 +7003,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6895,30 +7012,77 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Total Revenues</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Total Capital Costs</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Variable Costs</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Fixed Costs</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Total Profits</t>
-        </is>
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -6926,19 +7090,230 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3375173.553962106</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>426686.7228096584</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187210</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2239490.975693894</v>
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>8</v>
+      </c>
+      <c r="H2" t="n">
+        <v>23</v>
+      </c>
+      <c r="I2" t="n">
+        <v>38</v>
+      </c>
+      <c r="J2" t="n">
+        <v>47</v>
+      </c>
+      <c r="K2" t="n">
+        <v>48</v>
+      </c>
+      <c r="L2" t="n">
+        <v>43</v>
+      </c>
+      <c r="M2" t="n">
+        <v>31.99999999427018</v>
+      </c>
+      <c r="N2" t="n">
+        <v>19</v>
+      </c>
+      <c r="O2" t="n">
+        <v>7</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
